--- a/calc.xlsx
+++ b/calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24645" windowHeight="11700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="57600" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="технолог" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <definedName name="толщина_пластины">снабжение!$AL$47:$AL$53</definedName>
     <definedName name="Фланцы" localSheetId="1">снабжение!$AQ$37:$AQ$55</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -301,9 +301,6 @@
     <t>ходы</t>
   </si>
   <si>
-    <t>0000</t>
-  </si>
-  <si>
     <t>ИТОГО</t>
   </si>
   <si>
@@ -1603,11 +1600,14 @@
   <si>
     <t>1/6</t>
   </si>
+  <si>
+    <t>7777</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.00&quot;р.&quot;"/>
@@ -4770,167 +4770,296 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="124" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="125" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="124" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="125" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="126" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="26" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="2" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="26" fillId="6" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="6" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -4949,12 +5078,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4979,293 +5102,137 @@
     <xf numFmtId="0" fontId="27" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="124" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="125" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="124" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="125" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="126" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="26" fillId="2" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="26" fillId="6" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="26" fillId="6" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="40" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5408,9 +5375,15 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5424,6 +5397,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5444,7 +5444,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5552,6 +5552,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-95C3-4F01-8914-7961E8A17944}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -5567,6 +5572,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-95C3-4F01-8914-7961E8A17944}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -5582,6 +5592,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-95C3-4F01-8914-7961E8A17944}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -5597,6 +5612,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-95C3-4F01-8914-7961E8A17944}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -5612,6 +5632,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-95C3-4F01-8914-7961E8A17944}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -5627,6 +5652,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-95C3-4F01-8914-7961E8A17944}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -5644,6 +5674,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-95C3-4F01-8914-7961E8A17944}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -5663,7 +5698,12 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-95C3-4F01-8914-7961E8A17944}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -5729,6 +5769,10 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-95C3-4F01-8914-7961E8A17944}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5749,7 +5793,12 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-95C3-4F01-8914-7961E8A17944}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -5769,7 +5818,12 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-95C3-4F01-8914-7961E8A17944}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -5789,7 +5843,12 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-95C3-4F01-8914-7961E8A17944}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -5809,7 +5868,12 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-95C3-4F01-8914-7961E8A17944}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -5829,7 +5893,12 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-95C3-4F01-8914-7961E8A17944}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -5930,29 +5999,34 @@
                 <c:formatCode>#\ ##0\ "₽"</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1250000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>20069947.814735997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1356336.64</c:v>
+                  <c:v>1441096.5430399999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>38400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>194700</c:v>
+                  <c:v>198700</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58100</c:v>
+                  <c:v>64100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-95C3-4F01-8914-7961E8A17944}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6894,8 +6968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:AL75"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6929,7 +7003,7 @@
     <row r="3" spans="5:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="5:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="453" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F4" s="453"/>
       <c r="G4" s="453"/>
@@ -6940,7 +7014,7 @@
     </row>
     <row r="5" spans="5:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="454" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F5" s="454"/>
       <c r="G5" s="454"/>
@@ -6951,7 +7025,7 @@
     </row>
     <row r="6" spans="5:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6" s="455" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F6" s="455"/>
       <c r="G6" s="455"/>
@@ -6962,7 +7036,7 @@
     </row>
     <row r="7" spans="5:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E7" s="456" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="456"/>
       <c r="G7" s="456"/>
@@ -6973,7 +7047,7 @@
     </row>
     <row r="8" spans="5:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E8" s="457" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="457"/>
       <c r="G8" s="457"/>
@@ -6999,7 +7073,7 @@
     <row r="23" spans="4:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="4:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D24" s="446" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E24" s="447"/>
       <c r="F24" s="447"/>
@@ -7049,7 +7123,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>4</v>
@@ -7058,46 +7132,46 @@
         <v>14</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J26" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="16" t="s">
+      <c r="L26" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L26" s="16" t="s">
+      <c r="M26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="M26" s="16" t="s">
+      <c r="N26" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N26" s="14" t="s">
+      <c r="O26" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="O26" s="14" t="s">
-        <v>27</v>
       </c>
       <c r="P26" s="13" t="s">
         <v>5</v>
       </c>
       <c r="Q26" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R26" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S26" s="13" t="s">
         <v>7</v>
       </c>
       <c r="T26" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="U26" s="156" t="s">
         <v>12</v>
       </c>
       <c r="V26" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="4:22" x14ac:dyDescent="0.25">
@@ -7108,13 +7182,13 @@
         <v>3</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I27" s="4">
         <v>400</v>
@@ -7140,7 +7214,7 @@
         <v>31.46</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q27" s="7" t="str">
         <f>P27</f>
@@ -7220,28 +7294,28 @@
     <row r="59" spans="25:38" ht="45" x14ac:dyDescent="0.25">
       <c r="Y59" s="260"/>
       <c r="Z59" s="238" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA59" s="239" t="s">
         <v>242</v>
-      </c>
-      <c r="AA59" s="239" t="s">
-        <v>243</v>
       </c>
       <c r="AB59" s="240"/>
       <c r="AC59" s="237"/>
       <c r="AD59" s="237"/>
       <c r="AE59" s="237"/>
       <c r="AF59" s="247" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG59" s="248" t="s">
         <v>246</v>
-      </c>
-      <c r="AG59" s="248" t="s">
-        <v>247</v>
       </c>
       <c r="AH59" s="237"/>
       <c r="AI59" s="237"/>
       <c r="AJ59" s="247" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK59" s="248" t="s">
         <v>246</v>
-      </c>
-      <c r="AK59" s="248" t="s">
-        <v>247</v>
       </c>
       <c r="AL59" s="261"/>
     </row>
@@ -7514,7 +7588,7 @@
     <row r="70" spans="25:38" x14ac:dyDescent="0.25">
       <c r="Y70" s="260"/>
       <c r="Z70" s="452" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AA70" s="452"/>
       <c r="AB70" s="245"/>
@@ -7534,7 +7608,7 @@
     <row r="71" spans="25:38" x14ac:dyDescent="0.25">
       <c r="Y71" s="260"/>
       <c r="Z71" s="452" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AA71" s="452"/>
       <c r="AB71" s="245"/>
@@ -7560,22 +7634,22 @@
       <c r="AC72" s="237"/>
       <c r="AD72" s="237"/>
       <c r="AE72" s="240" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF72" s="240" t="s">
         <v>248</v>
       </c>
-      <c r="AF72" s="240" t="s">
+      <c r="AG72" s="262" t="s">
         <v>249</v>
       </c>
-      <c r="AG72" s="262" t="s">
+      <c r="AH72" s="262" t="s">
         <v>250</v>
       </c>
-      <c r="AH72" s="262" t="s">
+      <c r="AI72" s="262" t="s">
         <v>251</v>
       </c>
-      <c r="AI72" s="262" t="s">
+      <c r="AJ72" s="262" t="s">
         <v>252</v>
-      </c>
-      <c r="AJ72" s="262" t="s">
-        <v>253</v>
       </c>
       <c r="AK72" s="237"/>
       <c r="AL72" s="261"/>
@@ -7699,8 +7773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I13" sqref="A9:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7711,10 +7785,10 @@
     <col min="4" max="4" width="21.7109375" style="9" customWidth="1"/>
     <col min="5" max="5" width="13" style="9" customWidth="1"/>
     <col min="6" max="6" width="12.140625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="9" customWidth="1"/>
     <col min="8" max="8" width="12.140625" style="9" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="12" style="9" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="9" customWidth="1"/>
     <col min="11" max="11" width="15.5703125" style="9" customWidth="1"/>
     <col min="12" max="12" width="12" style="9" customWidth="1"/>
     <col min="13" max="13" width="13.42578125" style="9" customWidth="1"/>
@@ -7761,7 +7835,7 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="386" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B1" s="115"/>
       <c r="C1" s="58"/>
@@ -7809,7 +7883,7 @@
       <c r="D2" s="527"/>
       <c r="E2" s="527"/>
       <c r="F2" s="3" t="s">
-        <v>15</v>
+        <v>398</v>
       </c>
       <c r="G2" s="58"/>
       <c r="H2" s="58"/>
@@ -7860,7 +7934,7 @@
       <c r="L3" s="58"/>
       <c r="M3" s="58"/>
       <c r="N3" s="454" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O3" s="454"/>
       <c r="P3" s="454"/>
@@ -7894,16 +7968,16 @@
       <c r="C4" s="528"/>
       <c r="D4" s="528"/>
       <c r="E4" s="528"/>
-      <c r="F4" s="564"/>
-      <c r="G4" s="564"/>
-      <c r="H4" s="564"/>
-      <c r="I4" s="564"/>
+      <c r="F4" s="458"/>
+      <c r="G4" s="458"/>
+      <c r="H4" s="458"/>
+      <c r="I4" s="458"/>
       <c r="J4" s="58"/>
       <c r="K4" s="58"/>
       <c r="L4" s="58"/>
       <c r="M4" s="58"/>
       <c r="N4" s="455" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O4" s="455"/>
       <c r="P4" s="455"/>
@@ -7944,7 +8018,7 @@
       <c r="L5" s="58"/>
       <c r="M5" s="58"/>
       <c r="N5" s="456" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O5" s="456"/>
       <c r="P5" s="456"/>
@@ -7975,10 +8049,10 @@
       <c r="B6" s="58"/>
       <c r="C6" s="58"/>
       <c r="D6" s="379" t="s">
+        <v>366</v>
+      </c>
+      <c r="E6" s="380" t="s">
         <v>367</v>
-      </c>
-      <c r="E6" s="380" t="s">
-        <v>368</v>
       </c>
       <c r="F6" s="102"/>
       <c r="G6" s="102"/>
@@ -7989,7 +8063,7 @@
       <c r="L6" s="58"/>
       <c r="M6" s="58"/>
       <c r="N6" s="457" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O6" s="457"/>
       <c r="P6" s="457"/>
@@ -8031,7 +8105,7 @@
       <c r="G7" s="58"/>
       <c r="H7" s="58"/>
       <c r="I7" s="529" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J7" s="529"/>
       <c r="K7" s="529"/>
@@ -8064,7 +8138,7 @@
     </row>
     <row r="8" spans="1:37" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="533" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B8" s="534"/>
       <c r="C8" s="534"/>
@@ -8120,34 +8194,34 @@
       <c r="F9" s="532"/>
       <c r="G9" s="532"/>
       <c r="H9" s="170" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9" s="171" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J9" s="171" t="s">
         <v>14</v>
       </c>
       <c r="K9" s="172" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L9" s="172" t="s">
+        <v>204</v>
+      </c>
+      <c r="M9" s="173" t="s">
+        <v>188</v>
+      </c>
+      <c r="N9" s="172" t="s">
         <v>205</v>
       </c>
-      <c r="M9" s="173" t="s">
-        <v>189</v>
-      </c>
-      <c r="N9" s="172" t="s">
+      <c r="O9" s="172" t="s">
         <v>206</v>
       </c>
-      <c r="O9" s="172" t="s">
+      <c r="P9" s="174" t="s">
         <v>207</v>
       </c>
-      <c r="P9" s="174" t="s">
+      <c r="Q9" s="175" t="s">
         <v>208</v>
-      </c>
-      <c r="Q9" s="175" t="s">
-        <v>209</v>
       </c>
       <c r="R9" s="58"/>
       <c r="S9" s="58"/>
@@ -8171,12 +8245,14 @@
       <c r="AK9" s="35"/>
     </row>
     <row r="10" spans="1:37" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="556" t="s">
-        <v>71</v>
+      <c r="A10" s="545" t="s">
+        <v>70</v>
       </c>
       <c r="B10" s="534"/>
       <c r="C10" s="534"/>
-      <c r="D10" s="538"/>
+      <c r="D10" s="538">
+        <v>1000</v>
+      </c>
       <c r="E10" s="539"/>
       <c r="F10" s="540"/>
       <c r="G10" s="540"/>
@@ -8242,15 +8318,17 @@
       <c r="AK10" s="35"/>
     </row>
     <row r="11" spans="1:37" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="555" t="s">
-        <v>70</v>
+      <c r="A11" s="544" t="s">
+        <v>69</v>
       </c>
       <c r="B11" s="534"/>
       <c r="C11" s="534"/>
-      <c r="D11" s="515"/>
-      <c r="E11" s="516"/>
-      <c r="F11" s="554"/>
-      <c r="G11" s="554"/>
+      <c r="D11" s="556">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="557"/>
+      <c r="F11" s="543"/>
+      <c r="G11" s="543"/>
       <c r="H11" s="114"/>
       <c r="I11" s="114"/>
       <c r="J11" s="114"/>
@@ -8283,13 +8361,15 @@
       <c r="AK11" s="35"/>
     </row>
     <row r="12" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="555" t="s">
+      <c r="A12" s="544" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="534"/>
       <c r="C12" s="534"/>
-      <c r="D12" s="562"/>
-      <c r="E12" s="563"/>
+      <c r="D12" s="551">
+        <v>2500</v>
+      </c>
+      <c r="E12" s="552"/>
       <c r="F12" s="114"/>
       <c r="G12" s="114"/>
       <c r="H12" s="110"/>
@@ -8324,28 +8404,30 @@
       <c r="AK12" s="35"/>
     </row>
     <row r="13" spans="1:37" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="559" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="560"/>
-      <c r="C13" s="561"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="557"/>
-      <c r="F13" s="558"/>
-      <c r="G13" s="558"/>
+      <c r="A13" s="548" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="549"/>
+      <c r="C13" s="550"/>
+      <c r="D13" s="135">
+        <v>1</v>
+      </c>
+      <c r="E13" s="546"/>
+      <c r="F13" s="547"/>
+      <c r="G13" s="547"/>
       <c r="H13" s="58"/>
       <c r="I13" s="58"/>
       <c r="J13" s="183" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K13" s="192">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="L13" s="167"/>
       <c r="M13" s="108"/>
       <c r="N13" s="108"/>
       <c r="O13" s="212" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P13" s="213">
         <v>120000</v>
@@ -8374,22 +8456,24 @@
     </row>
     <row r="14" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="537" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="537"/>
       <c r="C14" s="537"/>
-      <c r="D14" s="136"/>
+      <c r="D14" s="136">
+        <v>1</v>
+      </c>
       <c r="E14" s="58"/>
       <c r="F14" s="58"/>
       <c r="G14" s="58"/>
       <c r="H14" s="58"/>
       <c r="I14" s="58"/>
       <c r="J14" s="184" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K14" s="185">
         <f>K13*D12</f>
-        <v>0</v>
+        <v>1250000</v>
       </c>
       <c r="L14" s="58"/>
       <c r="M14" s="58"/>
@@ -8419,12 +8503,14 @@
       <c r="AK14" s="35"/>
     </row>
     <row r="15" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="544" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="544"/>
-      <c r="C15" s="544"/>
-      <c r="D15" s="137"/>
+      <c r="A15" s="508" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="508"/>
+      <c r="C15" s="508"/>
+      <c r="D15" s="137">
+        <v>1</v>
+      </c>
       <c r="E15" s="58"/>
       <c r="F15" s="58"/>
       <c r="G15" s="58"/>
@@ -8460,12 +8546,14 @@
       <c r="AK15" s="35"/>
     </row>
     <row r="16" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="545" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="545"/>
-      <c r="C16" s="545"/>
-      <c r="D16" s="137"/>
+      <c r="A16" s="509" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="509"/>
+      <c r="C16" s="509"/>
+      <c r="D16" s="137">
+        <v>1</v>
+      </c>
       <c r="E16" s="58"/>
       <c r="F16" s="58"/>
       <c r="G16" s="58"/>
@@ -8484,10 +8572,10 @@
       <c r="T16" s="58"/>
       <c r="U16" s="59"/>
       <c r="V16" s="35"/>
-      <c r="W16" s="482" t="s">
-        <v>241</v>
-      </c>
-      <c r="X16" s="483"/>
+      <c r="W16" s="592" t="s">
+        <v>240</v>
+      </c>
+      <c r="X16" s="593"/>
       <c r="Y16" s="35"/>
       <c r="Z16" s="35"/>
       <c r="AA16" s="35"/>
@@ -8503,12 +8591,14 @@
       <c r="AK16" s="35"/>
     </row>
     <row r="17" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="545" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="545"/>
-      <c r="C17" s="545"/>
-      <c r="D17" s="138"/>
+      <c r="A17" s="509" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="509"/>
+      <c r="C17" s="509"/>
+      <c r="D17" s="138">
+        <v>1</v>
+      </c>
       <c r="G17" s="58"/>
       <c r="H17" s="58"/>
       <c r="I17" s="58"/>
@@ -8543,41 +8633,41 @@
     </row>
     <row r="18" spans="1:37" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="58"/>
-      <c r="B18" s="509" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="511"/>
-      <c r="D18" s="511"/>
-      <c r="E18" s="511"/>
-      <c r="F18" s="511"/>
-      <c r="G18" s="510"/>
-      <c r="H18" s="509" t="s">
+      <c r="B18" s="515" t="s">
         <v>58</v>
       </c>
-      <c r="I18" s="511"/>
-      <c r="J18" s="511"/>
-      <c r="K18" s="511"/>
-      <c r="L18" s="511"/>
-      <c r="M18" s="510"/>
+      <c r="C18" s="516"/>
+      <c r="D18" s="516"/>
+      <c r="E18" s="516"/>
+      <c r="F18" s="516"/>
+      <c r="G18" s="517"/>
+      <c r="H18" s="515" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="516"/>
+      <c r="J18" s="516"/>
+      <c r="K18" s="516"/>
+      <c r="L18" s="516"/>
+      <c r="M18" s="517"/>
       <c r="N18" s="58"/>
-      <c r="O18" s="512" t="s">
-        <v>116</v>
-      </c>
-      <c r="P18" s="513"/>
-      <c r="Q18" s="514"/>
+      <c r="O18" s="553" t="s">
+        <v>115</v>
+      </c>
+      <c r="P18" s="554"/>
+      <c r="Q18" s="555"/>
       <c r="R18" s="58"/>
       <c r="S18" s="58"/>
       <c r="T18" s="58"/>
       <c r="U18" s="59"/>
       <c r="V18" s="230">
         <f>'результат '!F26</f>
-        <v>0</v>
-      </c>
-      <c r="W18" s="525" t="s">
-        <v>231</v>
-      </c>
-      <c r="X18" s="525"/>
-      <c r="Y18" s="526"/>
+        <v>1250000</v>
+      </c>
+      <c r="W18" s="564" t="s">
+        <v>230</v>
+      </c>
+      <c r="X18" s="564"/>
+      <c r="Y18" s="565"/>
       <c r="Z18" s="35"/>
       <c r="AA18" s="35"/>
       <c r="AB18" s="35"/>
@@ -8593,37 +8683,41 @@
     </row>
     <row r="19" spans="1:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
-      <c r="B19" s="484" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="486" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="486"/>
-      <c r="E19" s="383"/>
+      <c r="B19" s="510" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="526" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="526"/>
+      <c r="E19" s="383">
+        <v>0.2</v>
+      </c>
       <c r="F19" s="46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G19" s="47">
         <v>7850</v>
       </c>
-      <c r="H19" s="484" t="s">
-        <v>54</v>
-      </c>
-      <c r="I19" s="486" t="s">
-        <v>73</v>
-      </c>
-      <c r="J19" s="486"/>
-      <c r="K19" s="383"/>
+      <c r="H19" s="510" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="526" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" s="526"/>
+      <c r="K19" s="383">
+        <v>0.02</v>
+      </c>
       <c r="L19" s="46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M19" s="47">
         <v>7850</v>
       </c>
       <c r="N19" s="58"/>
       <c r="O19" s="54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P19" s="384">
         <v>88</v>
@@ -8635,13 +8729,13 @@
       <c r="U19" s="59"/>
       <c r="V19" s="231">
         <f>'результат '!G26</f>
-        <v>0</v>
-      </c>
-      <c r="W19" s="490" t="s">
-        <v>232</v>
-      </c>
-      <c r="X19" s="490"/>
-      <c r="Y19" s="491"/>
+        <v>16752595.999999998</v>
+      </c>
+      <c r="W19" s="566" t="s">
+        <v>231</v>
+      </c>
+      <c r="X19" s="566"/>
+      <c r="Y19" s="567"/>
       <c r="Z19" s="35"/>
       <c r="AA19" s="35"/>
       <c r="AB19" s="35"/>
@@ -8657,38 +8751,42 @@
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
-      <c r="B20" s="485"/>
-      <c r="C20" s="487" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="487"/>
-      <c r="E20" s="39"/>
+      <c r="B20" s="501"/>
+      <c r="C20" s="511" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="511"/>
+      <c r="E20" s="39">
+        <v>1000</v>
+      </c>
       <c r="F20" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G20" s="81">
         <f>IF(технолог!G27=AM45,AN45*E19*G19,IF(технолог!G27=AM46,AN46*E19*G19,IF(технолог!G27=AM40,AN40*E19*G19,IF(технолог!G27=AM41,AN41*E19*G19,IF(технолог!G27=AM42,AN42*E19*G19,IF(технолог!G27=AM43,AN43*E19*G19,IF(технолог!G27=AM44,AN44*E19*G19,IF(технолог!G27=AM48,AN48*E19*G19,IF(технолог!G27=AM49,AN49*E19*G19,IF(технолог!G27=AM50,AN50*E19*G19,IF(технолог!G27=AM51,AN51*E19*G19,AN52*E19*G19)))))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="485"/>
-      <c r="I20" s="487" t="s">
-        <v>57</v>
-      </c>
-      <c r="J20" s="487"/>
-      <c r="K20" s="39"/>
+        <v>1570</v>
+      </c>
+      <c r="H20" s="501"/>
+      <c r="I20" s="511" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="511"/>
+      <c r="K20" s="39">
+        <v>1000</v>
+      </c>
       <c r="L20" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M20" s="81">
         <f>M21*K19*K19*M19</f>
-        <v>0</v>
+        <v>8.8108399999999989</v>
       </c>
       <c r="N20" s="58"/>
       <c r="O20" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="119" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="119" t="s">
-        <v>123</v>
       </c>
       <c r="Q20" s="42"/>
       <c r="R20" s="58"/>
@@ -8697,13 +8795,13 @@
       <c r="U20" s="59"/>
       <c r="V20" s="231">
         <f>'результат '!H26</f>
-        <v>0</v>
-      </c>
-      <c r="W20" s="490" t="s">
-        <v>233</v>
-      </c>
-      <c r="X20" s="490"/>
-      <c r="Y20" s="491"/>
+        <v>129051.153936</v>
+      </c>
+      <c r="W20" s="566" t="s">
+        <v>232</v>
+      </c>
+      <c r="X20" s="566"/>
+      <c r="Y20" s="567"/>
       <c r="Z20" s="35"/>
       <c r="AA20" s="35"/>
       <c r="AB20" s="35"/>
@@ -8719,36 +8817,40 @@
     </row>
     <row r="21" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="58"/>
-      <c r="B21" s="488" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="489"/>
-      <c r="D21" s="489"/>
-      <c r="E21" s="39"/>
+      <c r="B21" s="512" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="513"/>
+      <c r="D21" s="513"/>
+      <c r="E21" s="39">
+        <v>1000</v>
+      </c>
       <c r="F21" s="34"/>
       <c r="G21" s="128"/>
-      <c r="H21" s="488" t="s">
-        <v>62</v>
-      </c>
-      <c r="I21" s="489"/>
-      <c r="J21" s="489"/>
-      <c r="K21" s="39"/>
+      <c r="H21" s="512" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="513"/>
+      <c r="J21" s="513"/>
+      <c r="K21" s="39">
+        <v>1000</v>
+      </c>
       <c r="L21" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M21" s="74">
         <f>(технолог!T27+технолог!U27)*0.001*технолог!I27+2*E19+2*технолог!V27*0.001</f>
-        <v>2.4059999999999997</v>
+        <v>2.8059999999999996</v>
       </c>
       <c r="N21" s="58"/>
       <c r="O21" s="54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P21" s="119" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q21" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R21" s="58"/>
       <c r="S21" s="58"/>
@@ -8756,13 +8858,13 @@
       <c r="U21" s="59"/>
       <c r="V21" s="231">
         <f>'результат '!I26</f>
-        <v>0</v>
-      </c>
-      <c r="W21" s="490" t="s">
-        <v>234</v>
-      </c>
-      <c r="X21" s="490"/>
-      <c r="Y21" s="491"/>
+        <v>3144000</v>
+      </c>
+      <c r="W21" s="566" t="s">
+        <v>233</v>
+      </c>
+      <c r="X21" s="566"/>
+      <c r="Y21" s="567"/>
       <c r="Z21" s="35"/>
       <c r="AA21" s="35"/>
       <c r="AB21" s="35"/>
@@ -8783,44 +8885,46 @@
       <c r="D22" s="106"/>
       <c r="E22" s="125"/>
       <c r="F22" s="129" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G22" s="127">
         <f>IF(технолог!G27=снабжение!AM46,G20*D10+E20+E21,G20*D10*D16+E20+E21)</f>
-        <v>0</v>
+        <v>1572000</v>
       </c>
       <c r="H22" s="106"/>
       <c r="I22" s="106"/>
       <c r="J22" s="106"/>
       <c r="K22" s="125"/>
       <c r="L22" s="126" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M22" s="127">
         <f>IF(технолог!G27=снабжение!AM46,M20*D10*(D15+0.03)+K20+K21,M20*D10*D15+K20+K21)</f>
-        <v>0</v>
+        <v>11075.165199999998</v>
       </c>
       <c r="N22" s="58"/>
       <c r="O22" s="54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P22" s="119" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q22" s="55"/>
+        <v>126</v>
+      </c>
+      <c r="Q22" s="55">
+        <v>100</v>
+      </c>
       <c r="R22" s="58"/>
       <c r="S22" s="58"/>
       <c r="T22" s="58"/>
       <c r="U22" s="59"/>
       <c r="V22" s="231">
         <f>'результат '!J26</f>
-        <v>0</v>
-      </c>
-      <c r="W22" s="490" t="s">
-        <v>235</v>
-      </c>
-      <c r="X22" s="490"/>
-      <c r="Y22" s="491"/>
+        <v>44300.660799999991</v>
+      </c>
+      <c r="W22" s="566" t="s">
+        <v>234</v>
+      </c>
+      <c r="X22" s="566"/>
+      <c r="Y22" s="567"/>
       <c r="Z22" s="35"/>
       <c r="AA22" s="35"/>
       <c r="AB22" s="35"/>
@@ -8850,26 +8954,28 @@
       <c r="M23" s="58"/>
       <c r="N23" s="58"/>
       <c r="O23" s="54" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P23" s="11" t="str">
         <f>P22</f>
         <v>М33</v>
       </c>
-      <c r="Q23" s="55"/>
+      <c r="Q23" s="55">
+        <v>100</v>
+      </c>
       <c r="R23" s="58"/>
       <c r="S23" s="58"/>
       <c r="T23" s="58"/>
       <c r="U23" s="59"/>
       <c r="V23" s="231">
         <f>'результат '!K26</f>
-        <v>0</v>
-      </c>
-      <c r="W23" s="490" t="s">
-        <v>175</v>
-      </c>
-      <c r="X23" s="490"/>
-      <c r="Y23" s="491"/>
+        <v>26400</v>
+      </c>
+      <c r="W23" s="566" t="s">
+        <v>174</v>
+      </c>
+      <c r="X23" s="566"/>
+      <c r="Y23" s="567"/>
       <c r="Z23" s="35"/>
       <c r="AA23" s="35"/>
       <c r="AB23" s="35"/>
@@ -8885,44 +8991,46 @@
     </row>
     <row r="24" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="58"/>
-      <c r="B24" s="509" t="s">
+      <c r="B24" s="515" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="516"/>
+      <c r="D24" s="516"/>
+      <c r="E24" s="516"/>
+      <c r="F24" s="516"/>
+      <c r="G24" s="517"/>
+      <c r="H24" s="515" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="511"/>
-      <c r="D24" s="511"/>
-      <c r="E24" s="511"/>
-      <c r="F24" s="511"/>
-      <c r="G24" s="510"/>
-      <c r="H24" s="509" t="s">
-        <v>61</v>
-      </c>
-      <c r="I24" s="511"/>
-      <c r="J24" s="511"/>
-      <c r="K24" s="511"/>
-      <c r="L24" s="511"/>
-      <c r="M24" s="510"/>
+      <c r="I24" s="516"/>
+      <c r="J24" s="516"/>
+      <c r="K24" s="516"/>
+      <c r="L24" s="516"/>
+      <c r="M24" s="517"/>
       <c r="N24" s="58"/>
       <c r="O24" s="56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P24" s="11" t="str">
         <f>P22</f>
         <v>М33</v>
       </c>
-      <c r="Q24" s="55"/>
+      <c r="Q24" s="55">
+        <v>100</v>
+      </c>
       <c r="R24" s="58"/>
       <c r="S24" s="58"/>
       <c r="T24" s="58"/>
       <c r="U24" s="59"/>
       <c r="V24" s="231">
         <f>'результат '!L26</f>
-        <v>0</v>
-      </c>
-      <c r="W24" s="490" t="s">
-        <v>28</v>
-      </c>
-      <c r="X24" s="490"/>
-      <c r="Y24" s="491"/>
+        <v>4000</v>
+      </c>
+      <c r="W24" s="566" t="s">
+        <v>27</v>
+      </c>
+      <c r="X24" s="566"/>
+      <c r="Y24" s="567"/>
       <c r="Z24" s="35"/>
       <c r="AA24" s="35"/>
       <c r="AB24" s="35"/>
@@ -8938,30 +9046,34 @@
     </row>
     <row r="25" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="58"/>
-      <c r="B25" s="517" t="s">
-        <v>161</v>
-      </c>
-      <c r="C25" s="492" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="492"/>
-      <c r="E25" s="385"/>
+      <c r="B25" s="505" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="514" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="514"/>
+      <c r="E25" s="385">
+        <v>0.2</v>
+      </c>
       <c r="F25" s="72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G25" s="73">
         <v>7850</v>
       </c>
-      <c r="H25" s="517" t="s">
-        <v>162</v>
-      </c>
-      <c r="I25" s="492" t="s">
-        <v>73</v>
-      </c>
-      <c r="J25" s="492"/>
-      <c r="K25" s="385"/>
+      <c r="H25" s="505" t="s">
+        <v>161</v>
+      </c>
+      <c r="I25" s="514" t="s">
+        <v>72</v>
+      </c>
+      <c r="J25" s="514"/>
+      <c r="K25" s="385">
+        <v>0.2</v>
+      </c>
       <c r="L25" s="72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M25" s="73">
         <v>7850</v>
@@ -8969,11 +9081,11 @@
       <c r="N25" s="58"/>
       <c r="O25" s="58"/>
       <c r="P25" s="104" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q25" s="103">
         <f>(Q22+Q23+Q24)*P19</f>
-        <v>0</v>
+        <v>26400</v>
       </c>
       <c r="R25" s="58"/>
       <c r="S25" s="58"/>
@@ -8981,13 +9093,13 @@
       <c r="U25" s="59"/>
       <c r="V25" s="231">
         <f>'результат '!M26</f>
-        <v>0</v>
-      </c>
-      <c r="W25" s="490" t="s">
-        <v>236</v>
-      </c>
-      <c r="X25" s="490"/>
-      <c r="Y25" s="491"/>
+        <v>8000</v>
+      </c>
+      <c r="W25" s="566" t="s">
+        <v>235</v>
+      </c>
+      <c r="X25" s="566"/>
+      <c r="Y25" s="567"/>
       <c r="Z25" s="35"/>
       <c r="AA25" s="35"/>
       <c r="AB25" s="35"/>
@@ -9003,31 +9115,35 @@
     </row>
     <row r="26" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="58"/>
-      <c r="B26" s="518"/>
-      <c r="C26" s="487" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="487"/>
-      <c r="E26" s="39"/>
+      <c r="B26" s="506"/>
+      <c r="C26" s="511" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="511"/>
+      <c r="E26" s="39">
+        <v>1000</v>
+      </c>
       <c r="F26" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G26" s="81">
         <f>E25*G27*M21*G25</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="518"/>
-      <c r="I26" s="487" t="s">
-        <v>57</v>
-      </c>
-      <c r="J26" s="487"/>
-      <c r="K26" s="39"/>
+        <v>4185.1489999999994</v>
+      </c>
+      <c r="H26" s="506"/>
+      <c r="I26" s="511" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" s="511"/>
+      <c r="K26" s="39">
+        <v>1000</v>
+      </c>
       <c r="L26" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M26" s="81">
         <f>K25*M27*M21*M25</f>
-        <v>0</v>
+        <v>4185.1489999999994</v>
       </c>
       <c r="N26" s="58"/>
       <c r="O26" s="58"/>
@@ -9039,13 +9155,13 @@
       <c r="U26" s="59"/>
       <c r="V26" s="231">
         <f>'результат '!N26</f>
-        <v>1274416.6399999999</v>
-      </c>
-      <c r="W26" s="490" t="s">
-        <v>237</v>
-      </c>
-      <c r="X26" s="490"/>
-      <c r="Y26" s="491"/>
+        <v>1275581.7899999998</v>
+      </c>
+      <c r="W26" s="566" t="s">
+        <v>236</v>
+      </c>
+      <c r="X26" s="566"/>
+      <c r="Y26" s="567"/>
       <c r="Z26" s="35"/>
       <c r="AA26" s="35"/>
       <c r="AB26" s="35"/>
@@ -9061,51 +9177,55 @@
     </row>
     <row r="27" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="58"/>
-      <c r="B27" s="499" t="s">
-        <v>163</v>
-      </c>
-      <c r="C27" s="500"/>
-      <c r="D27" s="500"/>
-      <c r="E27" s="77"/>
+      <c r="B27" s="600" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="601"/>
+      <c r="D27" s="601"/>
+      <c r="E27" s="77">
+        <v>1000</v>
+      </c>
       <c r="F27" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G27" s="78">
         <f>IF(технолог!G27=AM45,AO45,IF(технолог!G27=AM46,AO46,IF(технолог!G27=AM40,AO40,IF(технолог!G27=AM41,AO41,IF(технолог!G27=AM42,AO42,IF(технолог!G27=AM43,AO43,IF(технолог!G27=AM44,AO44,IF(технолог!G27=AM47,AO47,IF(технолог!G27=AM48,AO48,IF(технолог!G27=AM49,AO49,IF(технолог!G27=AM50,AO50,IF(технолог!G27=AM51,AO51,AO52))))))))))))</f>
         <v>0.95</v>
       </c>
-      <c r="H27" s="499" t="s">
-        <v>163</v>
-      </c>
-      <c r="I27" s="500"/>
-      <c r="J27" s="500"/>
-      <c r="K27" s="77"/>
+      <c r="H27" s="600" t="s">
+        <v>162</v>
+      </c>
+      <c r="I27" s="601"/>
+      <c r="J27" s="601"/>
+      <c r="K27" s="77">
+        <v>1000</v>
+      </c>
       <c r="L27" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M27" s="78">
         <f>IF(технолог!G27=AM45,AP45,IF(технолог!G27=AM46,AP46,IF(технолог!G27=AM40,AP40,IF(технолог!G27=AM41,AP41,IF(технолог!G27=AM42,AP42,IF(технолог!G27=AM43,AP43,IF(технолог!G27=AM44,AP44,IF(технолог!G27=AM47,AP47,IF(технолог!G27=AM48,AP48,IF(технолог!G27=AM49,AP49,IF(технолог!G27=AM50,AP50,IF(технолог!G27=AM51,AP51,AP52))))))))))))</f>
         <v>0.95</v>
       </c>
       <c r="N27" s="58"/>
-      <c r="O27" s="512" t="s">
-        <v>115</v>
-      </c>
-      <c r="P27" s="513"/>
-      <c r="Q27" s="513"/>
-      <c r="R27" s="513"/>
-      <c r="S27" s="513"/>
-      <c r="T27" s="514"/>
+      <c r="O27" s="553" t="s">
+        <v>114</v>
+      </c>
+      <c r="P27" s="554"/>
+      <c r="Q27" s="554"/>
+      <c r="R27" s="554"/>
+      <c r="S27" s="554"/>
+      <c r="T27" s="555"/>
       <c r="U27" s="59"/>
       <c r="V27" s="231">
         <f>'результат '!O26</f>
-        <v>0</v>
-      </c>
-      <c r="W27" s="490" t="s">
-        <v>238</v>
-      </c>
-      <c r="X27" s="490"/>
-      <c r="Y27" s="491"/>
+        <v>83594.753040000011</v>
+      </c>
+      <c r="W27" s="566" t="s">
+        <v>237</v>
+      </c>
+      <c r="X27" s="566"/>
+      <c r="Y27" s="567"/>
       <c r="Z27" s="35"/>
       <c r="AA27" s="35"/>
       <c r="AB27" s="35"/>
@@ -9122,36 +9242,40 @@
     <row r="28" spans="1:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="58"/>
       <c r="B28" s="52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" s="120" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D28" s="120" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E28" s="79" t="s">
-        <v>108</v>
-      </c>
-      <c r="F28" s="80"/>
+        <v>107</v>
+      </c>
+      <c r="F28" s="80">
+        <v>1000</v>
+      </c>
       <c r="G28" s="53"/>
       <c r="H28" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I28" s="120" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J28" s="120" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K28" s="79" t="s">
-        <v>108</v>
-      </c>
-      <c r="L28" s="80"/>
+        <v>107</v>
+      </c>
+      <c r="L28" s="80">
+        <v>1000</v>
+      </c>
       <c r="M28" s="53"/>
       <c r="N28" s="58"/>
       <c r="O28" s="68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P28" s="48" t="str">
         <f>D28</f>
@@ -9163,22 +9287,22 @@
       </c>
       <c r="R28" s="48"/>
       <c r="S28" s="48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T28" s="69">
         <f>F28</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="U28" s="59"/>
       <c r="V28" s="231">
         <f>'результат '!P26</f>
         <v>81920</v>
       </c>
-      <c r="W28" s="490" t="s">
-        <v>239</v>
-      </c>
-      <c r="X28" s="490"/>
-      <c r="Y28" s="491"/>
+      <c r="W28" s="566" t="s">
+        <v>238</v>
+      </c>
+      <c r="X28" s="566"/>
+      <c r="Y28" s="567"/>
       <c r="Z28" s="35"/>
       <c r="AA28" s="35"/>
       <c r="AB28" s="35"/>
@@ -9195,60 +9319,66 @@
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="58"/>
       <c r="B29" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="121" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="121" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="121" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" s="121" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="F29" s="39"/>
+      <c r="F29" s="39">
+        <v>1000</v>
+      </c>
       <c r="G29" s="42"/>
       <c r="H29" s="41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I29" s="121" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J29" s="121" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K29" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="L29" s="39"/>
+        <v>107</v>
+      </c>
+      <c r="L29" s="39">
+        <v>1000</v>
+      </c>
       <c r="M29" s="42"/>
       <c r="N29" s="58"/>
       <c r="O29" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="P29" s="119" t="s">
         <v>144</v>
       </c>
-      <c r="P29" s="119" t="s">
-        <v>145</v>
-      </c>
       <c r="Q29" s="119" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R29" s="119" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S29" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="T29" s="55"/>
+        <v>151</v>
+      </c>
+      <c r="T29" s="55">
+        <v>1000</v>
+      </c>
       <c r="U29" s="59"/>
       <c r="V29" s="231">
         <f>'результат '!Q26</f>
-        <v>0</v>
-      </c>
-      <c r="W29" s="490" t="s">
-        <v>115</v>
-      </c>
-      <c r="X29" s="490"/>
-      <c r="Y29" s="491"/>
+        <v>16000</v>
+      </c>
+      <c r="W29" s="566" t="s">
+        <v>114</v>
+      </c>
+      <c r="X29" s="566"/>
+      <c r="Y29" s="567"/>
       <c r="Z29" s="35"/>
       <c r="AA29" s="35"/>
       <c r="AB29" s="35"/>
@@ -9268,39 +9398,45 @@
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="F30" s="39"/>
+        <v>110</v>
+      </c>
+      <c r="F30" s="39">
+        <v>1000</v>
+      </c>
       <c r="G30" s="42"/>
       <c r="H30" s="41"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
       <c r="K30" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="L30" s="39"/>
+        <v>112</v>
+      </c>
+      <c r="L30" s="39">
+        <v>1000</v>
+      </c>
       <c r="M30" s="42"/>
       <c r="N30" s="58"/>
       <c r="O30" s="64"/>
       <c r="P30" s="49"/>
       <c r="Q30" s="49"/>
       <c r="R30" s="57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S30" s="60" t="s">
-        <v>154</v>
-      </c>
-      <c r="T30" s="55"/>
+        <v>153</v>
+      </c>
+      <c r="T30" s="55">
+        <v>1000</v>
+      </c>
       <c r="U30" s="59"/>
       <c r="V30" s="231">
         <f>'результат '!R26</f>
         <v>2000</v>
       </c>
-      <c r="W30" s="490" t="s">
-        <v>223</v>
-      </c>
-      <c r="X30" s="490"/>
-      <c r="Y30" s="491"/>
+      <c r="W30" s="566" t="s">
+        <v>222</v>
+      </c>
+      <c r="X30" s="566"/>
+      <c r="Y30" s="567"/>
       <c r="Z30" s="35"/>
       <c r="AA30" s="35"/>
       <c r="AB30" s="35"/>
@@ -9320,17 +9456,21 @@
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="F31" s="39"/>
+        <v>111</v>
+      </c>
+      <c r="F31" s="39">
+        <v>1000</v>
+      </c>
       <c r="G31" s="42"/>
       <c r="H31" s="41"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
       <c r="K31" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="L31" s="39"/>
+        <v>113</v>
+      </c>
+      <c r="L31" s="39">
+        <v>1000</v>
+      </c>
       <c r="M31" s="42"/>
       <c r="N31" s="58"/>
       <c r="O31" s="70"/>
@@ -9338,19 +9478,21 @@
       <c r="Q31" s="50"/>
       <c r="R31" s="50"/>
       <c r="S31" s="61" t="s">
-        <v>153</v>
-      </c>
-      <c r="T31" s="55"/>
+        <v>152</v>
+      </c>
+      <c r="T31" s="55">
+        <v>1000</v>
+      </c>
       <c r="U31" s="59"/>
       <c r="V31" s="231">
         <f>'результат '!S26</f>
         <v>2700</v>
       </c>
-      <c r="W31" s="490" t="s">
-        <v>224</v>
-      </c>
-      <c r="X31" s="490"/>
-      <c r="Y31" s="491"/>
+      <c r="W31" s="566" t="s">
+        <v>223</v>
+      </c>
+      <c r="X31" s="566"/>
+      <c r="Y31" s="567"/>
       <c r="Z31" s="35"/>
       <c r="AA31" s="35"/>
       <c r="AB31" s="35"/>
@@ -9370,21 +9512,25 @@
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="F32" s="39"/>
+        <v>164</v>
+      </c>
+      <c r="F32" s="39">
+        <v>1000</v>
+      </c>
       <c r="G32" s="42"/>
       <c r="H32" s="41"/>
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
       <c r="K32" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="L32" s="39"/>
+        <v>164</v>
+      </c>
+      <c r="L32" s="39">
+        <v>1000</v>
+      </c>
       <c r="M32" s="42"/>
       <c r="N32" s="58"/>
       <c r="O32" s="68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P32" s="48" t="str">
         <f>D29</f>
@@ -9396,22 +9542,22 @@
       </c>
       <c r="R32" s="48"/>
       <c r="S32" s="48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T32" s="69">
         <f>F29</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="U32" s="59"/>
       <c r="V32" s="231">
         <f>'результат '!T26</f>
-        <v>50000</v>
-      </c>
-      <c r="W32" s="490" t="s">
-        <v>227</v>
-      </c>
-      <c r="X32" s="490"/>
-      <c r="Y32" s="491"/>
+        <v>52000</v>
+      </c>
+      <c r="W32" s="566" t="s">
+        <v>226</v>
+      </c>
+      <c r="X32" s="566"/>
+      <c r="Y32" s="567"/>
       <c r="Z32" s="35"/>
       <c r="AA32" s="35"/>
       <c r="AB32" s="35"/>
@@ -9431,45 +9577,51 @@
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="F33" s="39"/>
+        <v>165</v>
+      </c>
+      <c r="F33" s="39">
+        <v>1000</v>
+      </c>
       <c r="G33" s="42"/>
       <c r="H33" s="41"/>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
       <c r="K33" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="L33" s="39"/>
+        <v>165</v>
+      </c>
+      <c r="L33" s="39">
+        <v>1000</v>
+      </c>
       <c r="M33" s="42"/>
       <c r="N33" s="58"/>
       <c r="O33" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="P33" s="119" t="s">
         <v>144</v>
       </c>
-      <c r="P33" s="119" t="s">
-        <v>145</v>
-      </c>
       <c r="Q33" s="119" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R33" s="119" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S33" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="T33" s="55"/>
+        <v>151</v>
+      </c>
+      <c r="T33" s="55">
+        <v>1000</v>
+      </c>
       <c r="U33" s="59"/>
       <c r="V33" s="231">
         <f>'результат '!U26</f>
-        <v>0</v>
-      </c>
-      <c r="W33" s="490" t="s">
-        <v>240</v>
-      </c>
-      <c r="X33" s="490"/>
-      <c r="Y33" s="491"/>
+        <v>2000</v>
+      </c>
+      <c r="W33" s="566" t="s">
+        <v>239</v>
+      </c>
+      <c r="X33" s="566"/>
+      <c r="Y33" s="567"/>
       <c r="Z33" s="35"/>
       <c r="AA33" s="35"/>
       <c r="AB33" s="35"/>
@@ -9487,34 +9639,34 @@
       <c r="A34" s="58"/>
       <c r="B34" s="43"/>
       <c r="C34" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D34" s="130">
         <f>G26*D17*D11</f>
-        <v>0</v>
+        <v>4185148.9999999995</v>
       </c>
       <c r="E34" s="131" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F34" s="130">
         <f>F28+F29+F30+F31+F32+F33</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G34" s="132"/>
       <c r="H34" s="43"/>
       <c r="I34" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J34" s="130">
         <f>M26*D17*D11</f>
-        <v>0</v>
+        <v>4185148.9999999995</v>
       </c>
       <c r="K34" s="131" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L34" s="130">
         <f>L28+L29+L30+L31+L32+L33</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="M34" s="42"/>
       <c r="N34" s="58"/>
@@ -9522,22 +9674,24 @@
       <c r="P34" s="49"/>
       <c r="Q34" s="49"/>
       <c r="R34" s="57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S34" s="60" t="s">
-        <v>154</v>
-      </c>
-      <c r="T34" s="55"/>
+        <v>153</v>
+      </c>
+      <c r="T34" s="55">
+        <v>1000</v>
+      </c>
       <c r="U34" s="59"/>
       <c r="V34" s="231">
         <f>'результат '!V26</f>
         <v>20000</v>
       </c>
-      <c r="W34" s="490" t="s">
-        <v>226</v>
-      </c>
-      <c r="X34" s="490"/>
-      <c r="Y34" s="491"/>
+      <c r="W34" s="566" t="s">
+        <v>225</v>
+      </c>
+      <c r="X34" s="566"/>
+      <c r="Y34" s="567"/>
       <c r="Z34" s="35"/>
       <c r="AA34" s="35"/>
       <c r="AB34" s="35"/>
@@ -9558,22 +9712,22 @@
       <c r="D35" s="43"/>
       <c r="E35" s="44"/>
       <c r="F35" s="133" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G35" s="103">
         <f>D34*2+F34</f>
-        <v>0</v>
+        <v>8376297.9999999991</v>
       </c>
       <c r="H35" s="58"/>
       <c r="I35" s="58"/>
       <c r="J35" s="43"/>
       <c r="K35" s="44"/>
       <c r="L35" s="45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M35" s="103">
         <f>J34*2+L34</f>
-        <v>0</v>
+        <v>8376297.9999999991</v>
       </c>
       <c r="N35" s="58"/>
       <c r="O35" s="70"/>
@@ -9581,19 +9735,21 @@
       <c r="Q35" s="50"/>
       <c r="R35" s="50"/>
       <c r="S35" s="61" t="s">
-        <v>153</v>
-      </c>
-      <c r="T35" s="55"/>
+        <v>152</v>
+      </c>
+      <c r="T35" s="55">
+        <v>1000</v>
+      </c>
       <c r="U35" s="59"/>
       <c r="V35" s="231">
         <f>'результат '!W26</f>
-        <v>58100</v>
-      </c>
-      <c r="W35" s="490" t="s">
-        <v>174</v>
-      </c>
-      <c r="X35" s="490"/>
-      <c r="Y35" s="491"/>
+        <v>64100</v>
+      </c>
+      <c r="W35" s="566" t="s">
+        <v>173</v>
+      </c>
+      <c r="X35" s="566"/>
+      <c r="Y35" s="567"/>
       <c r="Z35" s="35"/>
       <c r="AA35" s="35"/>
       <c r="AB35" s="35"/>
@@ -9607,22 +9763,22 @@
       <c r="AJ35" s="35"/>
       <c r="AK35" s="35"/>
       <c r="AQ35" s="163" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AR35" s="147"/>
       <c r="AS35" s="164" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AT35" s="146"/>
       <c r="AU35" s="146"/>
       <c r="AV35" s="146"/>
       <c r="AW35" s="163" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AX35" s="146"/>
       <c r="AY35" s="147"/>
       <c r="AZ35" s="163" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BA35" s="147"/>
       <c r="BB35" s="49"/>
@@ -9643,7 +9799,7 @@
       <c r="M36" s="58"/>
       <c r="N36" s="58"/>
       <c r="O36" s="68" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P36" s="48" t="str">
         <f>J28</f>
@@ -9655,22 +9811,22 @@
       </c>
       <c r="R36" s="48"/>
       <c r="S36" s="48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T36" s="69">
         <f>L28</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="U36" s="59"/>
       <c r="V36" s="232">
         <f>'результат '!X26</f>
         <v>120000</v>
       </c>
-      <c r="W36" s="519" t="s">
-        <v>36</v>
-      </c>
-      <c r="X36" s="519"/>
-      <c r="Y36" s="520"/>
+      <c r="W36" s="558" t="s">
+        <v>35</v>
+      </c>
+      <c r="X36" s="558"/>
+      <c r="Y36" s="559"/>
       <c r="Z36" s="35"/>
       <c r="AA36" s="35"/>
       <c r="AB36" s="35"/>
@@ -9684,29 +9840,29 @@
       <c r="AJ36" s="35"/>
       <c r="AK36" s="35"/>
       <c r="AQ36" s="142" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR36" s="143" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS36" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT36" s="49" t="s">
         <v>117</v>
-      </c>
-      <c r="AR36" s="143" t="s">
-        <v>97</v>
-      </c>
-      <c r="AS36" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="AT36" s="49" t="s">
-        <v>118</v>
       </c>
       <c r="AU36" s="49"/>
       <c r="AV36" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW36" s="151" t="s">
+        <v>116</v>
+      </c>
+      <c r="AX36" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY36" s="152" t="s">
         <v>117</v>
-      </c>
-      <c r="AW36" s="151" t="s">
-        <v>117</v>
-      </c>
-      <c r="AX36" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="AY36" s="152" t="s">
-        <v>118</v>
       </c>
       <c r="AZ36" s="151" t="s">
         <v>10</v>
@@ -9716,43 +9872,45 @@
     </row>
     <row r="37" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="58"/>
-      <c r="B37" s="504" t="s">
-        <v>164</v>
-      </c>
-      <c r="C37" s="505"/>
-      <c r="D37" s="505"/>
-      <c r="E37" s="505"/>
-      <c r="F37" s="506"/>
+      <c r="B37" s="605" t="s">
+        <v>163</v>
+      </c>
+      <c r="C37" s="606"/>
+      <c r="D37" s="606"/>
+      <c r="E37" s="606"/>
+      <c r="F37" s="607"/>
       <c r="G37" s="58"/>
-      <c r="H37" s="507" t="s">
+      <c r="H37" s="608" t="s">
+        <v>170</v>
+      </c>
+      <c r="I37" s="609"/>
+      <c r="J37" s="515" t="s">
         <v>171</v>
       </c>
-      <c r="I37" s="508"/>
-      <c r="J37" s="509" t="s">
+      <c r="K37" s="517"/>
+      <c r="L37" s="515" t="s">
         <v>172</v>
       </c>
-      <c r="K37" s="510"/>
-      <c r="L37" s="509" t="s">
-        <v>173</v>
-      </c>
-      <c r="M37" s="510"/>
+      <c r="M37" s="517"/>
       <c r="N37" s="58"/>
       <c r="O37" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="P37" s="119" t="s">
         <v>144</v>
       </c>
-      <c r="P37" s="119" t="s">
-        <v>145</v>
-      </c>
       <c r="Q37" s="119" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R37" s="119" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S37" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="T37" s="55"/>
+        <v>151</v>
+      </c>
+      <c r="T37" s="55">
+        <v>1000</v>
+      </c>
       <c r="U37" s="59"/>
       <c r="V37" s="35"/>
       <c r="W37" s="35"/>
@@ -9771,32 +9929,32 @@
       <c r="AJ37" s="35"/>
       <c r="AK37" s="35"/>
       <c r="AQ37" s="142" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AR37" s="143" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS37" s="49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AT37" s="49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AU37" s="49"/>
       <c r="AV37" s="49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AW37" s="142" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX37" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="AX37" s="51" t="s">
-        <v>140</v>
-      </c>
       <c r="AY37" s="143" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AZ37" s="151" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BA37" s="143"/>
       <c r="BB37" s="49"/>
@@ -9805,46 +9963,50 @@
       <c r="A38" s="58"/>
       <c r="B38" s="41"/>
       <c r="C38" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="D38" s="75"/>
+        <v>154</v>
+      </c>
+      <c r="D38" s="75">
+        <v>1000</v>
+      </c>
       <c r="E38" s="71" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F38" s="76">
         <f>D38*4</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G38" s="58"/>
       <c r="H38" s="52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I38" s="214">
         <v>1000</v>
       </c>
       <c r="J38" s="217" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K38" s="218">
         <v>1500</v>
       </c>
       <c r="L38" s="217" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M38" s="218">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N38" s="58"/>
       <c r="O38" s="64"/>
       <c r="P38" s="49"/>
       <c r="Q38" s="49"/>
       <c r="R38" s="57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S38" s="60" t="s">
-        <v>154</v>
-      </c>
-      <c r="T38" s="55"/>
+        <v>153</v>
+      </c>
+      <c r="T38" s="55">
+        <v>1000</v>
+      </c>
       <c r="U38" s="59"/>
       <c r="V38" s="35"/>
       <c r="W38" s="35"/>
@@ -9863,78 +10025,78 @@
       <c r="AJ38" s="35"/>
       <c r="AK38" s="35"/>
       <c r="AL38" s="443" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AM38" s="141"/>
       <c r="AN38" s="165" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO38" s="521" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO38" s="560" t="s">
+        <v>215</v>
+      </c>
+      <c r="AP38" s="562" t="s">
         <v>216</v>
       </c>
-      <c r="AP38" s="523" t="s">
-        <v>217</v>
-      </c>
       <c r="AQ38" s="142" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AR38" s="143" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AS38" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AT38" s="49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AU38" s="49"/>
       <c r="AV38" s="49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AW38" s="151" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AX38" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AY38" s="143" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AZ38" s="151" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BA38" s="143"/>
       <c r="BB38" s="49"/>
     </row>
     <row r="39" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="58"/>
-      <c r="B39" s="501" t="s">
-        <v>158</v>
-      </c>
-      <c r="C39" s="502"/>
-      <c r="D39" s="502"/>
-      <c r="E39" s="503"/>
+      <c r="B39" s="602" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" s="603"/>
+      <c r="D39" s="603"/>
+      <c r="E39" s="604"/>
       <c r="F39" s="134">
         <v>2</v>
       </c>
       <c r="G39" s="58"/>
       <c r="H39" s="41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I39" s="82">
         <v>1000</v>
       </c>
       <c r="J39" s="41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K39" s="82">
         <v>1200</v>
       </c>
       <c r="L39" s="216" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M39" s="82">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N39" s="58"/>
       <c r="O39" s="70"/>
@@ -9942,9 +10104,11 @@
       <c r="Q39" s="50"/>
       <c r="R39" s="50"/>
       <c r="S39" s="61" t="s">
-        <v>153</v>
-      </c>
-      <c r="T39" s="55"/>
+        <v>152</v>
+      </c>
+      <c r="T39" s="55">
+        <v>1000</v>
+      </c>
       <c r="U39" s="59"/>
       <c r="V39" s="35"/>
       <c r="W39" s="35"/>
@@ -9963,41 +10127,41 @@
       <c r="AJ39" s="35"/>
       <c r="AK39" s="35"/>
       <c r="AL39" s="444" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AM39" s="142"/>
       <c r="AN39" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="AO39" s="522"/>
-      <c r="AP39" s="524"/>
+        <v>187</v>
+      </c>
+      <c r="AO39" s="561"/>
+      <c r="AP39" s="563"/>
       <c r="AQ39" s="142" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AR39" s="143" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AS39" s="49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AT39" s="49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AU39" s="49"/>
       <c r="AV39" s="49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AW39" s="151" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AX39" s="51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AY39" s="143" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AZ39" s="151" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BA39" s="143"/>
       <c r="BB39" s="49"/>
@@ -10008,37 +10172,37 @@
       <c r="C40" s="102"/>
       <c r="D40" s="102"/>
       <c r="E40" s="100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F40" s="105">
         <f>F38+F39*F38</f>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="G40" s="58"/>
       <c r="H40" s="100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I40" s="215">
         <f>I38+I39</f>
         <v>2000</v>
       </c>
       <c r="J40" s="100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K40" s="215">
         <f>K38+K39</f>
         <v>2700</v>
       </c>
       <c r="L40" s="100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M40" s="215">
         <f>M38+M39</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="N40" s="58"/>
       <c r="O40" s="62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P40" s="49" t="str">
         <f>J29</f>
@@ -10050,11 +10214,11 @@
       </c>
       <c r="R40" s="49"/>
       <c r="S40" s="49" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T40" s="63">
         <f>L29</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="U40" s="59"/>
       <c r="V40" s="35"/>
@@ -10074,10 +10238,10 @@
       <c r="AJ40" s="35"/>
       <c r="AK40" s="35"/>
       <c r="AL40" s="444" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM40" s="144" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AN40" s="60">
         <v>6.8000000000000005E-2</v>
@@ -10089,28 +10253,28 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="AQ40" s="142" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AR40" s="143" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AS40" s="49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AT40" s="49"/>
       <c r="AU40" s="49"/>
       <c r="AV40" s="49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AW40" s="151" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AX40" s="49"/>
       <c r="AY40" s="152" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AZ40" s="151" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BA40" s="143"/>
       <c r="BB40" s="49"/>
@@ -10131,21 +10295,23 @@
       <c r="M41" s="58"/>
       <c r="N41" s="58"/>
       <c r="O41" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="P41" s="119" t="s">
         <v>144</v>
       </c>
-      <c r="P41" s="119" t="s">
-        <v>145</v>
-      </c>
       <c r="Q41" s="119" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R41" s="119" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S41" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="T41" s="55"/>
+        <v>151</v>
+      </c>
+      <c r="T41" s="55">
+        <v>1000</v>
+      </c>
       <c r="U41" s="59"/>
       <c r="V41" s="35"/>
       <c r="W41" s="35"/>
@@ -10164,10 +10330,10 @@
       <c r="AJ41" s="35"/>
       <c r="AK41" s="35"/>
       <c r="AL41" s="444" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AM41" s="144" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AN41" s="57">
         <v>0.12</v>
@@ -10179,19 +10345,19 @@
         <v>0.31</v>
       </c>
       <c r="AQ41" s="142" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AR41" s="143" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS41" s="49"/>
       <c r="AT41" s="49"/>
       <c r="AU41" s="49"/>
       <c r="AV41" s="49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AW41" s="151" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AX41" s="49"/>
       <c r="AY41" s="143"/>
@@ -10201,33 +10367,35 @@
     </row>
     <row r="42" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="58"/>
-      <c r="B42" s="602" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="603"/>
-      <c r="D42" s="603"/>
-      <c r="E42" s="603"/>
-      <c r="F42" s="603"/>
-      <c r="G42" s="604"/>
+      <c r="B42" s="496" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="497"/>
+      <c r="D42" s="497"/>
+      <c r="E42" s="497"/>
+      <c r="F42" s="497"/>
+      <c r="G42" s="498"/>
       <c r="H42" s="58"/>
-      <c r="I42" s="585" t="s">
-        <v>369</v>
-      </c>
-      <c r="J42" s="586"/>
-      <c r="K42" s="586"/>
-      <c r="L42" s="586"/>
-      <c r="M42" s="587"/>
+      <c r="I42" s="479" t="s">
+        <v>368</v>
+      </c>
+      <c r="J42" s="480"/>
+      <c r="K42" s="480"/>
+      <c r="L42" s="480"/>
+      <c r="M42" s="481"/>
       <c r="N42" s="58"/>
       <c r="O42" s="64"/>
       <c r="P42" s="49"/>
       <c r="Q42" s="49"/>
       <c r="R42" s="57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S42" s="60" t="s">
-        <v>154</v>
-      </c>
-      <c r="T42" s="55"/>
+        <v>153</v>
+      </c>
+      <c r="T42" s="55">
+        <v>1000</v>
+      </c>
       <c r="U42" s="59"/>
       <c r="V42" s="35"/>
       <c r="W42" s="35"/>
@@ -10247,7 +10415,7 @@
       <c r="AK42" s="35"/>
       <c r="AL42" s="444"/>
       <c r="AM42" s="144" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN42" s="57">
         <v>0.19</v>
@@ -10259,19 +10427,19 @@
         <v>0.40200000000000002</v>
       </c>
       <c r="AQ42" s="142" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AR42" s="143" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AS42" s="49"/>
       <c r="AT42" s="49"/>
       <c r="AU42" s="49"/>
       <c r="AV42" s="49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AW42" s="151" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AX42" s="49"/>
       <c r="AY42" s="143"/>
@@ -10281,35 +10449,37 @@
     </row>
     <row r="43" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="58"/>
-      <c r="B43" s="546" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="547"/>
+      <c r="B43" s="518" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="519"/>
       <c r="D43" s="83">
         <v>3300</v>
       </c>
-      <c r="E43" s="548" t="s">
-        <v>383</v>
-      </c>
-      <c r="F43" s="549"/>
+      <c r="E43" s="520" t="s">
+        <v>382</v>
+      </c>
+      <c r="F43" s="521"/>
       <c r="G43" s="86">
         <v>600</v>
       </c>
       <c r="H43" s="58"/>
-      <c r="I43" s="588"/>
-      <c r="J43" s="589"/>
-      <c r="K43" s="589"/>
-      <c r="L43" s="589"/>
-      <c r="M43" s="590"/>
+      <c r="I43" s="482"/>
+      <c r="J43" s="483"/>
+      <c r="K43" s="483"/>
+      <c r="L43" s="483"/>
+      <c r="M43" s="484"/>
       <c r="N43" s="58"/>
       <c r="O43" s="65"/>
       <c r="P43" s="66"/>
       <c r="Q43" s="66"/>
       <c r="R43" s="66"/>
       <c r="S43" s="60" t="s">
-        <v>153</v>
-      </c>
-      <c r="T43" s="67"/>
+        <v>152</v>
+      </c>
+      <c r="T43" s="67">
+        <v>1000</v>
+      </c>
       <c r="U43" s="59"/>
       <c r="V43" s="35"/>
       <c r="W43" s="35"/>
@@ -10329,7 +10499,7 @@
       <c r="AK43" s="35"/>
       <c r="AL43" s="444"/>
       <c r="AM43" s="144" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AN43" s="57">
         <v>0.28000000000000003</v>
@@ -10341,46 +10511,46 @@
         <v>0.495</v>
       </c>
       <c r="AQ43" s="142" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AR43" s="143" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AS43" s="149"/>
       <c r="AT43" s="149"/>
       <c r="AU43" s="149"/>
       <c r="AV43" s="149" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AW43" s="151" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AX43" s="49"/>
       <c r="AY43" s="143"/>
     </row>
     <row r="44" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="58"/>
-      <c r="B44" s="550" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="551"/>
+      <c r="B44" s="522" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="523"/>
       <c r="D44" s="84">
         <v>1750</v>
       </c>
-      <c r="E44" s="552" t="s">
-        <v>384</v>
-      </c>
-      <c r="F44" s="553"/>
+      <c r="E44" s="524" t="s">
+        <v>383</v>
+      </c>
+      <c r="F44" s="525"/>
       <c r="G44" s="87">
         <v>87</v>
       </c>
       <c r="H44" s="58"/>
-      <c r="I44" s="591" t="s">
-        <v>391</v>
-      </c>
-      <c r="J44" s="592"/>
-      <c r="K44" s="592"/>
-      <c r="L44" s="592"/>
+      <c r="I44" s="485" t="s">
+        <v>390</v>
+      </c>
+      <c r="J44" s="486"/>
+      <c r="K44" s="486"/>
+      <c r="L44" s="486"/>
       <c r="M44" s="89">
         <v>50000</v>
       </c>
@@ -10390,11 +10560,11 @@
       <c r="Q44" s="58"/>
       <c r="R44" s="58"/>
       <c r="S44" s="104" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T44" s="105">
         <f>SUM(T28:T43)</f>
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="U44" s="59"/>
       <c r="V44" s="35"/>
@@ -10415,7 +10585,7 @@
       <c r="AK44" s="35"/>
       <c r="AL44" s="444"/>
       <c r="AM44" s="197" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AN44" s="198">
         <v>0.27</v>
@@ -10427,50 +10597,50 @@
         <v>0.38500000000000001</v>
       </c>
       <c r="AQ44" s="142" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AR44" s="143" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AS44" s="49"/>
       <c r="AT44" s="49"/>
       <c r="AU44" s="49"/>
       <c r="AV44" s="49"/>
       <c r="AW44" s="142" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AX44" s="49"/>
       <c r="AY44" s="143"/>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="58"/>
-      <c r="B45" s="550" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="551"/>
+      <c r="B45" s="522" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="523"/>
       <c r="D45" s="84">
         <v>2800</v>
       </c>
-      <c r="E45" s="552" t="s">
-        <v>385</v>
-      </c>
-      <c r="F45" s="553"/>
+      <c r="E45" s="524" t="s">
+        <v>384</v>
+      </c>
+      <c r="F45" s="525"/>
       <c r="G45" s="87">
         <v>50</v>
       </c>
       <c r="H45" s="58"/>
-      <c r="I45" s="591" t="s">
-        <v>181</v>
-      </c>
-      <c r="J45" s="592"/>
-      <c r="K45" s="592"/>
-      <c r="L45" s="592"/>
+      <c r="I45" s="485" t="s">
+        <v>180</v>
+      </c>
+      <c r="J45" s="486"/>
+      <c r="K45" s="486"/>
+      <c r="L45" s="486"/>
       <c r="M45" s="89">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N45" s="58"/>
       <c r="O45" s="220" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P45" s="219">
         <v>20000</v>
@@ -10498,7 +10668,7 @@
       <c r="AK45" s="35"/>
       <c r="AL45" s="445"/>
       <c r="AM45" s="144" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AN45" s="60">
         <v>0.46239999999999998</v>
@@ -10510,7 +10680,7 @@
         <v>0.61599999999999999</v>
       </c>
       <c r="AQ45" s="142" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AR45" s="143"/>
       <c r="AS45" s="49"/>
@@ -10518,32 +10688,32 @@
       <c r="AU45" s="49"/>
       <c r="AV45" s="49"/>
       <c r="AW45" s="148" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AX45" s="149"/>
       <c r="AY45" s="145"/>
     </row>
     <row r="46" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="58"/>
-      <c r="B46" s="598" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="599"/>
+      <c r="B46" s="492" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="493"/>
       <c r="D46" s="85">
         <v>1200</v>
       </c>
-      <c r="E46" s="600"/>
-      <c r="F46" s="601"/>
+      <c r="E46" s="494"/>
+      <c r="F46" s="495"/>
       <c r="G46" s="88"/>
       <c r="H46" s="58"/>
-      <c r="I46" s="593" t="s">
-        <v>181</v>
-      </c>
-      <c r="J46" s="594"/>
-      <c r="K46" s="594"/>
-      <c r="L46" s="594"/>
+      <c r="I46" s="487" t="s">
+        <v>180</v>
+      </c>
+      <c r="J46" s="488"/>
+      <c r="K46" s="488"/>
+      <c r="L46" s="488"/>
       <c r="M46" s="90">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N46" s="58"/>
       <c r="O46" s="58"/>
@@ -10570,10 +10740,10 @@
       <c r="AJ46" s="35"/>
       <c r="AK46" s="35"/>
       <c r="AL46" s="166" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AM46" s="144" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AN46" s="60">
         <v>1</v>
@@ -10585,17 +10755,17 @@
         <v>0.95</v>
       </c>
       <c r="AQ46" s="142" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AR46" s="143"/>
       <c r="AS46" s="418" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AT46" s="417" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AU46" s="163" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AV46" s="147"/>
     </row>
@@ -10641,7 +10811,7 @@
         <v>0.8</v>
       </c>
       <c r="AM47" s="193" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AN47" s="57">
         <v>0.6</v>
@@ -10653,18 +10823,18 @@
         <v>0.73499999999999999</v>
       </c>
       <c r="AQ47" s="142" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR47" s="143"/>
       <c r="AS47" s="49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AT47" s="237">
         <f>7880/10^6</f>
         <v>7.8799999999999999E-3</v>
       </c>
       <c r="AU47" s="142" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AV47" s="143">
         <v>7.7999999999999996E-3</v>
@@ -10672,22 +10842,22 @@
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="58"/>
-      <c r="B48" s="595" t="s">
-        <v>174</v>
-      </c>
-      <c r="C48" s="596"/>
-      <c r="D48" s="596"/>
-      <c r="E48" s="596"/>
-      <c r="F48" s="596"/>
-      <c r="G48" s="596"/>
-      <c r="H48" s="596"/>
-      <c r="I48" s="596"/>
-      <c r="J48" s="596"/>
-      <c r="K48" s="596"/>
-      <c r="L48" s="596"/>
-      <c r="M48" s="596"/>
-      <c r="N48" s="596"/>
-      <c r="O48" s="597"/>
+      <c r="B48" s="489" t="s">
+        <v>173</v>
+      </c>
+      <c r="C48" s="490"/>
+      <c r="D48" s="490"/>
+      <c r="E48" s="490"/>
+      <c r="F48" s="490"/>
+      <c r="G48" s="490"/>
+      <c r="H48" s="490"/>
+      <c r="I48" s="490"/>
+      <c r="J48" s="490"/>
+      <c r="K48" s="490"/>
+      <c r="L48" s="490"/>
+      <c r="M48" s="490"/>
+      <c r="N48" s="490"/>
+      <c r="O48" s="491"/>
       <c r="P48" s="58"/>
       <c r="Q48" s="58"/>
       <c r="R48" s="58"/>
@@ -10714,7 +10884,7 @@
         <v>1</v>
       </c>
       <c r="AM48" s="197" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AN48" s="198">
         <v>0.37</v>
@@ -10726,18 +10896,18 @@
         <v>0.435</v>
       </c>
       <c r="AQ48" s="142" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AR48" s="143"/>
       <c r="AS48" s="49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AT48" s="237">
         <f>8080/10^6</f>
         <v>8.0800000000000004E-3</v>
       </c>
       <c r="AU48" s="142" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AV48" s="143">
         <v>7.7999999999999996E-3</v>
@@ -10752,24 +10922,24 @@
       <c r="F49" s="140"/>
       <c r="G49" s="140"/>
       <c r="H49" s="409" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I49" s="410" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J49" s="411" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K49" s="140"/>
       <c r="L49" s="140"/>
       <c r="M49" s="409" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N49" s="410" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O49" s="411" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P49" s="58"/>
       <c r="Q49" s="58"/>
@@ -10797,7 +10967,7 @@
         <v>1.2</v>
       </c>
       <c r="AM49" s="144" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AN49" s="57">
         <v>1.63</v>
@@ -10809,11 +10979,11 @@
         <v>1.24</v>
       </c>
       <c r="AQ49" s="419" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AR49" s="143"/>
       <c r="AS49" s="49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT49" s="267">
         <v>8.8900000000000003E-3</v>
@@ -10827,10 +10997,10 @@
     </row>
     <row r="50" spans="1:59" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="58"/>
-      <c r="B50" s="605" t="s">
-        <v>175</v>
-      </c>
-      <c r="C50" s="606"/>
+      <c r="B50" s="499" t="s">
+        <v>174</v>
+      </c>
+      <c r="C50" s="500"/>
       <c r="D50" s="387" t="str">
         <f>O22</f>
         <v>шпилька</v>
@@ -10849,29 +11019,29 @@
       </c>
       <c r="H50" s="388">
         <f>Q22</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I50" s="91">
         <v>10</v>
       </c>
       <c r="J50" s="94">
         <f>H50*I50</f>
-        <v>0</v>
-      </c>
-      <c r="K50" s="580" t="s">
-        <v>179</v>
-      </c>
-      <c r="L50" s="581"/>
+        <v>1000</v>
+      </c>
+      <c r="K50" s="474" t="s">
+        <v>178</v>
+      </c>
+      <c r="L50" s="475"/>
       <c r="M50" s="406">
         <f>D38</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N50" s="407">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" s="408">
         <f t="shared" ref="O50:O52" si="0">M50*N50</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P50" s="58"/>
       <c r="Q50" s="58"/>
@@ -10899,7 +11069,7 @@
         <v>1.5</v>
       </c>
       <c r="AM50" s="197" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AN50" s="198">
         <v>1.01</v>
@@ -10911,17 +11081,17 @@
         <v>0.75</v>
       </c>
       <c r="AQ50" s="142" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AR50" s="143"/>
       <c r="AS50" s="49" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AT50" s="267">
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="AU50" s="151" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV50" s="143">
         <v>7.4000000000000003E-3</v>
@@ -10929,8 +11099,8 @@
     </row>
     <row r="51" spans="1:59" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="122"/>
-      <c r="B51" s="485"/>
-      <c r="C51" s="607"/>
+      <c r="B51" s="501"/>
+      <c r="C51" s="502"/>
       <c r="D51" s="389" t="str">
         <f t="shared" ref="D51:D52" si="1">O23</f>
         <v>гайка</v>
@@ -10949,19 +11119,19 @@
       </c>
       <c r="H51" s="390">
         <f t="shared" ref="H51:H52" si="3">Q23</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I51" s="33">
         <v>10</v>
       </c>
       <c r="J51" s="95">
         <f t="shared" ref="J51:J52" si="4">H51*I51</f>
-        <v>0</v>
-      </c>
-      <c r="K51" s="582" t="s">
-        <v>180</v>
-      </c>
-      <c r="L51" s="583"/>
+        <v>1000</v>
+      </c>
+      <c r="K51" s="476" t="s">
+        <v>179</v>
+      </c>
+      <c r="L51" s="477"/>
       <c r="M51" s="99">
         <v>5000</v>
       </c>
@@ -10998,7 +11168,7 @@
         <v>2</v>
       </c>
       <c r="AM51" s="144" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AN51" s="57">
         <v>2.4300000000000002</v>
@@ -11010,17 +11180,17 @@
         <v>1.514</v>
       </c>
       <c r="AQ51" s="142" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AR51" s="143"/>
       <c r="AS51" s="49" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AT51" s="237">
         <v>7.4000000000000003E-3</v>
       </c>
       <c r="AU51" s="142" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AV51" s="143">
         <v>7.4000000000000003E-3</v>
@@ -11028,8 +11198,8 @@
     </row>
     <row r="52" spans="1:59" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="123"/>
-      <c r="B52" s="608"/>
-      <c r="C52" s="609"/>
+      <c r="B52" s="503"/>
+      <c r="C52" s="504"/>
       <c r="D52" s="391" t="str">
         <f t="shared" si="1"/>
         <v>шайба</v>
@@ -11048,19 +11218,19 @@
       </c>
       <c r="H52" s="392">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I52" s="33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J52" s="95">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K52" s="584" t="s">
-        <v>182</v>
-      </c>
-      <c r="L52" s="581"/>
+        <v>1000</v>
+      </c>
+      <c r="K52" s="478" t="s">
+        <v>181</v>
+      </c>
+      <c r="L52" s="475"/>
       <c r="M52" s="99">
         <v>7000</v>
       </c>
@@ -11097,7 +11267,7 @@
         <v>3</v>
       </c>
       <c r="AM52" s="194" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AN52" s="195">
         <v>1.53</v>
@@ -11109,17 +11279,17 @@
         <v>0.94</v>
       </c>
       <c r="AQ52" s="142" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AR52" s="143"/>
       <c r="AS52" s="49" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AT52" s="237">
         <v>7.8600000000000007E-3</v>
       </c>
       <c r="AU52" s="142" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AV52" s="143">
         <v>7.8799999999999999E-3</v>
@@ -11135,21 +11305,21 @@
       <c r="G53" s="102"/>
       <c r="H53" s="102"/>
       <c r="I53" s="100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J53" s="103">
         <f>J50+J51+J52</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="K53" s="403"/>
       <c r="L53" s="404"/>
       <c r="M53" s="405"/>
       <c r="N53" s="100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O53" s="103">
         <f>O50+O51+O52</f>
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P53" s="58"/>
       <c r="Q53" s="58"/>
@@ -11177,17 +11347,17 @@
         <v>5</v>
       </c>
       <c r="AQ53" s="142" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AR53" s="143"/>
       <c r="AS53" s="49" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AT53" s="237">
         <v>8.0599999999999995E-3</v>
       </c>
       <c r="AU53" s="142" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AV53" s="143">
         <v>7.4000000000000003E-3</v>
@@ -11195,8 +11365,8 @@
     </row>
     <row r="54" spans="1:59" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="123"/>
-      <c r="B54" s="517" t="s">
-        <v>177</v>
+      <c r="B54" s="505" t="s">
+        <v>176</v>
       </c>
       <c r="C54" s="393" t="str">
         <f>P28</f>
@@ -11228,20 +11398,20 @@
         <f>H54*I54</f>
         <v>200</v>
       </c>
-      <c r="K54" s="493" t="s">
-        <v>178</v>
-      </c>
-      <c r="L54" s="494"/>
+      <c r="K54" s="594" t="s">
+        <v>177</v>
+      </c>
+      <c r="L54" s="595"/>
       <c r="M54" s="399">
         <f>T30</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N54" s="91">
         <v>1</v>
       </c>
       <c r="O54" s="92">
         <f>M54*N54</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P54" s="58"/>
       <c r="Q54" s="58"/>
@@ -11267,13 +11437,13 @@
       <c r="AK54" s="35"/>
       <c r="AL54" s="10"/>
       <c r="AQ54" s="142" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AR54" s="143"/>
       <c r="AS54" s="149"/>
       <c r="AT54" s="145"/>
       <c r="AU54" s="148" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AV54" s="145">
         <v>7.8600000000000007E-3</v>
@@ -11281,7 +11451,7 @@
     </row>
     <row r="55" spans="1:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="123"/>
-      <c r="B55" s="518"/>
+      <c r="B55" s="506"/>
       <c r="C55" s="395" t="str">
         <f>P32</f>
         <v>Ду600</v>
@@ -11312,8 +11482,8 @@
         <f>H55*I55</f>
         <v>200</v>
       </c>
-      <c r="K55" s="495"/>
-      <c r="L55" s="496"/>
+      <c r="K55" s="596"/>
+      <c r="L55" s="597"/>
       <c r="M55" s="400">
         <v>15000</v>
       </c>
@@ -11347,13 +11517,13 @@
       <c r="AJ55" s="234"/>
       <c r="AK55" s="234"/>
       <c r="AQ55" s="150" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AR55" s="145"/>
     </row>
     <row r="56" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="122"/>
-      <c r="B56" s="518"/>
+      <c r="B56" s="506"/>
       <c r="C56" s="395" t="str">
         <f>P36</f>
         <v>Ду450</v>
@@ -11384,18 +11554,18 @@
         <f>H56*I56</f>
         <v>400</v>
       </c>
-      <c r="K56" s="495"/>
-      <c r="L56" s="496"/>
+      <c r="K56" s="596"/>
+      <c r="L56" s="597"/>
       <c r="M56" s="400">
         <f>T38</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N56" s="33">
         <v>1</v>
       </c>
       <c r="O56" s="93">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P56" s="58"/>
       <c r="Q56" s="58"/>
@@ -11423,7 +11593,7 @@
     </row>
     <row r="57" spans="1:59" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="124"/>
-      <c r="B57" s="543"/>
+      <c r="B57" s="507"/>
       <c r="C57" s="397" t="str">
         <f>P40</f>
         <v>Ду300</v>
@@ -11454,8 +11624,8 @@
         <f>H57*I57</f>
         <v>300</v>
       </c>
-      <c r="K57" s="497"/>
-      <c r="L57" s="498"/>
+      <c r="K57" s="598"/>
+      <c r="L57" s="599"/>
       <c r="M57" s="401">
         <v>30000</v>
       </c>
@@ -11501,7 +11671,7 @@
       <c r="G58" s="102"/>
       <c r="H58" s="102"/>
       <c r="I58" s="100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J58" s="103">
         <f>J54+J55+J56+J57</f>
@@ -11511,11 +11681,11 @@
       <c r="L58" s="402"/>
       <c r="M58" s="402"/>
       <c r="N58" s="100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O58" s="103">
         <f>O54+O55+O56+O57</f>
-        <v>45000</v>
+        <v>47000</v>
       </c>
       <c r="P58" s="58"/>
       <c r="Q58" s="58"/>
@@ -11586,214 +11756,214 @@
     <row r="62" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="63" spans="1:59" x14ac:dyDescent="0.25">
       <c r="BE63" s="163" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BF63" s="146"/>
       <c r="BG63" s="147"/>
     </row>
     <row r="64" spans="1:59" x14ac:dyDescent="0.25">
       <c r="BE64" s="260" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BF64" s="237">
         <v>7.4000000000000003E-3</v>
       </c>
       <c r="BG64" s="261" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" spans="3:59" x14ac:dyDescent="0.25">
       <c r="BE65" s="260" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="BF65" s="237">
         <f>7880/10^6</f>
         <v>7.8799999999999999E-3</v>
       </c>
       <c r="BG65" s="261" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="66" spans="3:59" x14ac:dyDescent="0.25">
       <c r="BE66" s="268" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BF66" s="237">
         <v>7.8600000000000007E-3</v>
       </c>
       <c r="BG66" s="261" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="67" spans="3:59" x14ac:dyDescent="0.25">
       <c r="BE67" s="268" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BF67" s="237">
         <v>7.9000000000000008E-3</v>
       </c>
       <c r="BG67" s="261" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" spans="3:59" x14ac:dyDescent="0.25">
       <c r="BE68" s="268" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BF68" s="237">
         <v>8.0599999999999995E-3</v>
       </c>
       <c r="BG68" s="261" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="69" spans="3:59" x14ac:dyDescent="0.25">
       <c r="BE69" s="260" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="BF69" s="237">
         <f>8080/10^6</f>
         <v>8.0800000000000004E-3</v>
       </c>
       <c r="BG69" s="261" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="70" spans="3:59" x14ac:dyDescent="0.25">
       <c r="BE70" s="268" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BF70" s="267">
         <v>7.9600000000000001E-3</v>
       </c>
       <c r="BG70" s="261" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="71" spans="3:59" x14ac:dyDescent="0.25">
       <c r="BE71" s="268" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BF71" s="267">
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="BG71" s="261" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="3:59" x14ac:dyDescent="0.25">
       <c r="BE72" s="268" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BF72" s="267">
         <v>8.8900000000000003E-3</v>
       </c>
       <c r="BG72" s="261" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="73" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BE73" s="269" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BF73" s="270">
         <v>8.3000000000000001E-3</v>
       </c>
       <c r="BG73" s="266" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="75" spans="3:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C75" s="458" t="s">
+      <c r="C75" s="568" t="s">
+        <v>259</v>
+      </c>
+      <c r="D75" s="569"/>
+      <c r="E75" s="569"/>
+      <c r="F75" s="569"/>
+      <c r="G75" s="570"/>
+      <c r="H75" s="586" t="s">
+        <v>0</v>
+      </c>
+      <c r="I75" s="587"/>
+      <c r="J75" s="588"/>
+      <c r="K75" s="574" t="s">
         <v>260</v>
       </c>
-      <c r="D75" s="459"/>
-      <c r="E75" s="459"/>
-      <c r="F75" s="459"/>
-      <c r="G75" s="460"/>
-      <c r="H75" s="476" t="s">
-        <v>0</v>
-      </c>
-      <c r="I75" s="477"/>
-      <c r="J75" s="478"/>
-      <c r="K75" s="464" t="s">
+      <c r="L75" s="575"/>
+      <c r="M75" s="578" t="s">
         <v>261</v>
       </c>
-      <c r="L75" s="465"/>
-      <c r="M75" s="468" t="s">
+      <c r="N75" s="579"/>
+      <c r="O75" s="582" t="s">
         <v>262</v>
       </c>
-      <c r="N75" s="469"/>
-      <c r="O75" s="472" t="s">
-        <v>263</v>
-      </c>
-      <c r="P75" s="473"/>
+      <c r="P75" s="583"/>
     </row>
     <row r="76" spans="3:59" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C76" s="461"/>
-      <c r="D76" s="462"/>
-      <c r="E76" s="462"/>
-      <c r="F76" s="462"/>
-      <c r="G76" s="463"/>
-      <c r="H76" s="479"/>
-      <c r="I76" s="480"/>
-      <c r="J76" s="481"/>
-      <c r="K76" s="466"/>
-      <c r="L76" s="467"/>
-      <c r="M76" s="470"/>
-      <c r="N76" s="471"/>
-      <c r="O76" s="474"/>
-      <c r="P76" s="475"/>
+      <c r="C76" s="571"/>
+      <c r="D76" s="572"/>
+      <c r="E76" s="572"/>
+      <c r="F76" s="572"/>
+      <c r="G76" s="573"/>
+      <c r="H76" s="589"/>
+      <c r="I76" s="590"/>
+      <c r="J76" s="591"/>
+      <c r="K76" s="576"/>
+      <c r="L76" s="577"/>
+      <c r="M76" s="580"/>
+      <c r="N76" s="581"/>
+      <c r="O76" s="584"/>
+      <c r="P76" s="585"/>
     </row>
     <row r="77" spans="3:59" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C77" s="426" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D77" s="415" t="s">
+        <v>263</v>
+      </c>
+      <c r="E77" s="412" t="s">
+        <v>379</v>
+      </c>
+      <c r="F77" s="413" t="s">
         <v>264</v>
       </c>
-      <c r="E77" s="412" t="s">
+      <c r="G77" s="413" t="s">
+        <v>265</v>
+      </c>
+      <c r="H77" s="423" t="s">
+        <v>374</v>
+      </c>
+      <c r="I77" s="422" t="s">
+        <v>378</v>
+      </c>
+      <c r="J77" s="414" t="s">
+        <v>266</v>
+      </c>
+      <c r="K77" s="271" t="s">
+        <v>375</v>
+      </c>
+      <c r="L77" s="272" t="s">
+        <v>266</v>
+      </c>
+      <c r="M77" s="273" t="s">
+        <v>267</v>
+      </c>
+      <c r="N77" s="274" t="s">
+        <v>268</v>
+      </c>
+      <c r="O77" s="275" t="s">
+        <v>269</v>
+      </c>
+      <c r="P77" s="297" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q77" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="F77" s="413" t="s">
-        <v>265</v>
-      </c>
-      <c r="G77" s="413" t="s">
-        <v>266</v>
-      </c>
-      <c r="H77" s="423" t="s">
-        <v>375</v>
-      </c>
-      <c r="I77" s="422" t="s">
-        <v>379</v>
-      </c>
-      <c r="J77" s="414" t="s">
-        <v>267</v>
-      </c>
-      <c r="K77" s="271" t="s">
-        <v>376</v>
-      </c>
-      <c r="L77" s="272" t="s">
-        <v>267</v>
-      </c>
-      <c r="M77" s="273" t="s">
-        <v>268</v>
-      </c>
-      <c r="N77" s="274" t="s">
-        <v>269</v>
-      </c>
-      <c r="O77" s="275" t="s">
-        <v>270</v>
-      </c>
-      <c r="P77" s="297" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q77" s="9" t="s">
+      <c r="R77" s="9" t="s">
         <v>381</v>
-      </c>
-      <c r="R77" s="9" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="78" spans="3:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11990,18 +12160,18 @@
     <row r="91" spans="4:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="92" spans="4:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D92" s="276" t="s">
+        <v>271</v>
+      </c>
+      <c r="E92" s="277" t="s">
         <v>272</v>
       </c>
-      <c r="E92" s="277" t="s">
-        <v>273</v>
-      </c>
       <c r="G92" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="93" spans="4:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D93" s="276" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E93" s="278">
         <f>VLOOKUP(D104,B110:L122,11,0)</f>
@@ -12014,7 +12184,7 @@
     </row>
     <row r="94" spans="4:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D94" s="276" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E94" s="278">
         <f>VLOOKUP(D104,B110:O122,14,0)</f>
@@ -12024,20 +12194,20 @@
     </row>
     <row r="95" spans="4:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D95" s="276" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E95" s="278">
         <f>VLOOKUP(D104,B110:R122,17,0)</f>
         <v>43.664025600000002</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AT95"/>
     </row>
     <row r="96" spans="4:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D96" s="276" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E96" s="278"/>
       <c r="G96" s="420">
@@ -12048,7 +12218,7 @@
     </row>
     <row r="97" spans="2:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D97" s="276" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E97" s="278">
         <f>VLOOKUP(D104,B110:AB122,27,0)</f>
@@ -12066,17 +12236,17 @@
     </row>
     <row r="98" spans="2:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D98" s="276" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E98" s="278">
         <f>VLOOKUP(D104,B110:AE122,30,0)</f>
         <v>9.0210239999999988</v>
       </c>
       <c r="G98" s="279" t="s">
+        <v>306</v>
+      </c>
+      <c r="H98" s="279" t="s">
         <v>307</v>
-      </c>
-      <c r="H98" s="279" t="s">
-        <v>308</v>
       </c>
       <c r="I98" s="276"/>
       <c r="AL98" s="237"/>
@@ -12091,7 +12261,7 @@
     </row>
     <row r="99" spans="2:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D99" s="276" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E99" s="278">
         <f>VLOOKUP(D104,B110:AH122,33,0)</f>
@@ -12101,11 +12271,11 @@
         <f>технолог!T27+технолог!U27</f>
         <v>6</v>
       </c>
-      <c r="H99" s="572">
+      <c r="H99" s="466">
         <f>G99*технолог!I27</f>
         <v>2400</v>
       </c>
-      <c r="I99" s="573"/>
+      <c r="I99" s="467"/>
       <c r="AL99" s="237"/>
       <c r="AM99" s="237"/>
       <c r="AN99" s="237"/>
@@ -12118,7 +12288,7 @@
     </row>
     <row r="100" spans="2:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D100" s="276" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E100" s="278">
         <f>VLOOKUP(D104,B110:AK122,36,0)</f>
@@ -12136,7 +12306,7 @@
     </row>
     <row r="101" spans="2:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D101" s="279" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E101" s="280">
         <f>SUM(E93:E98)</f>
@@ -12167,18 +12337,18 @@
     </row>
     <row r="103" spans="2:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D103" s="276" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E103" s="276"/>
       <c r="AL103"/>
       <c r="AM103" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AN103"/>
       <c r="AO103"/>
       <c r="AP103"/>
       <c r="AQ103" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AR103"/>
       <c r="AS103"/>
@@ -12194,26 +12364,26 @@
         <v>1820.5952</v>
       </c>
       <c r="AL104" s="257" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AM104" s="258"/>
       <c r="AN104" s="259"/>
       <c r="AO104" s="310" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AP104" s="257" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AQ104" s="258"/>
       <c r="AR104" s="259"/>
       <c r="AS104" s="310" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AT104"/>
     </row>
     <row r="105" spans="2:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D105" s="276" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E105" s="280">
         <f>E104</f>
@@ -12267,7 +12437,7 @@
       <c r="T107" s="322"/>
       <c r="U107" s="322"/>
       <c r="V107" s="322" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W107" s="322"/>
       <c r="X107" s="322"/>
@@ -12275,7 +12445,7 @@
     </row>
     <row r="108" spans="2:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B108" s="290" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C108" s="326"/>
       <c r="D108" s="326"/>
@@ -12285,242 +12455,242 @@
       <c r="H108" s="277"/>
       <c r="I108" s="276"/>
       <c r="J108" s="276" t="s">
+        <v>283</v>
+      </c>
+      <c r="K108" s="279" t="s">
         <v>284</v>
       </c>
-      <c r="K108" s="279" t="s">
+      <c r="L108" s="276" t="s">
         <v>285</v>
       </c>
-      <c r="L108" s="276" t="s">
+      <c r="M108" s="276" t="s">
+        <v>283</v>
+      </c>
+      <c r="N108" s="279" t="s">
+        <v>284</v>
+      </c>
+      <c r="O108" s="279" t="s">
+        <v>285</v>
+      </c>
+      <c r="P108" s="276" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q108" s="276" t="s">
+        <v>283</v>
+      </c>
+      <c r="R108" s="279" t="s">
         <v>286</v>
       </c>
-      <c r="M108" s="276" t="s">
+      <c r="S108" s="276" t="s">
+        <v>283</v>
+      </c>
+      <c r="T108" s="312" t="s">
+        <v>283</v>
+      </c>
+      <c r="U108" s="312" t="s">
         <v>284</v>
       </c>
-      <c r="N108" s="279" t="s">
-        <v>285</v>
-      </c>
-      <c r="O108" s="279" t="s">
-        <v>286</v>
-      </c>
-      <c r="P108" s="276" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q108" s="276" t="s">
+      <c r="V108" s="312" t="s">
+        <v>287</v>
+      </c>
+      <c r="W108" s="312" t="s">
+        <v>283</v>
+      </c>
+      <c r="X108" s="312" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y108" s="312" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z108" s="279" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA108" s="279" t="s">
+        <v>330</v>
+      </c>
+      <c r="AB108" s="279" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC108" s="279" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD108" s="279" t="s">
+        <v>330</v>
+      </c>
+      <c r="AE108" s="279" t="s">
+        <v>287</v>
+      </c>
+      <c r="AF108" s="281" t="s">
         <v>284</v>
       </c>
-      <c r="R108" s="279" t="s">
+      <c r="AG108" s="282" t="s">
+        <v>283</v>
+      </c>
+      <c r="AH108" s="282" t="s">
         <v>287</v>
       </c>
-      <c r="S108" s="276" t="s">
+      <c r="AI108" s="282" t="s">
         <v>284</v>
       </c>
-      <c r="T108" s="312" t="s">
-        <v>284</v>
-      </c>
-      <c r="U108" s="312" t="s">
-        <v>285</v>
-      </c>
-      <c r="V108" s="312" t="s">
-        <v>288</v>
-      </c>
-      <c r="W108" s="312" t="s">
-        <v>284</v>
-      </c>
-      <c r="X108" s="312" t="s">
-        <v>289</v>
-      </c>
-      <c r="Y108" s="312" t="s">
-        <v>290</v>
-      </c>
-      <c r="Z108" s="279" t="s">
-        <v>284</v>
-      </c>
-      <c r="AA108" s="279" t="s">
-        <v>331</v>
-      </c>
-      <c r="AB108" s="279" t="s">
-        <v>288</v>
-      </c>
-      <c r="AC108" s="279" t="s">
-        <v>284</v>
-      </c>
-      <c r="AD108" s="279" t="s">
-        <v>331</v>
-      </c>
-      <c r="AE108" s="279" t="s">
-        <v>288</v>
-      </c>
-      <c r="AF108" s="281" t="s">
-        <v>285</v>
-      </c>
-      <c r="AG108" s="282" t="s">
-        <v>284</v>
-      </c>
-      <c r="AH108" s="282" t="s">
-        <v>288</v>
-      </c>
-      <c r="AI108" s="282" t="s">
-        <v>285</v>
-      </c>
       <c r="AJ108" s="282" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AK108" s="283" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AO108" s="322" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="109" spans="2:61" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B109" s="257" t="s">
+        <v>290</v>
+      </c>
+      <c r="C109" s="258" t="s">
+        <v>284</v>
+      </c>
+      <c r="D109" s="258" t="s">
+        <v>283</v>
+      </c>
+      <c r="E109" s="302" t="s">
+        <v>303</v>
+      </c>
+      <c r="F109" s="302" t="s">
+        <v>304</v>
+      </c>
+      <c r="G109" s="284" t="s">
         <v>291</v>
       </c>
-      <c r="C109" s="258" t="s">
-        <v>285</v>
-      </c>
-      <c r="D109" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="E109" s="302" t="s">
-        <v>304</v>
-      </c>
-      <c r="F109" s="302" t="s">
+      <c r="H109" s="279" t="s">
         <v>305</v>
       </c>
-      <c r="G109" s="284" t="s">
+      <c r="I109" s="279" t="s">
         <v>292</v>
       </c>
-      <c r="H109" s="279" t="s">
-        <v>306</v>
-      </c>
-      <c r="I109" s="279" t="s">
+      <c r="J109" s="460" t="s">
         <v>293</v>
       </c>
-      <c r="J109" s="566" t="s">
+      <c r="K109" s="461"/>
+      <c r="L109" s="462"/>
+      <c r="M109" s="460" t="s">
         <v>294</v>
       </c>
-      <c r="K109" s="567"/>
-      <c r="L109" s="568"/>
-      <c r="M109" s="566" t="s">
+      <c r="N109" s="461"/>
+      <c r="O109" s="462"/>
+      <c r="P109" s="468" t="s">
         <v>295</v>
       </c>
-      <c r="N109" s="567"/>
-      <c r="O109" s="568"/>
-      <c r="P109" s="574" t="s">
+      <c r="Q109" s="469"/>
+      <c r="R109" s="470"/>
+      <c r="S109" s="309" t="s">
         <v>296</v>
       </c>
-      <c r="Q109" s="575"/>
-      <c r="R109" s="576"/>
-      <c r="S109" s="309" t="s">
+      <c r="T109" s="471" t="s">
         <v>297</v>
       </c>
-      <c r="T109" s="577" t="s">
+      <c r="U109" s="472"/>
+      <c r="V109" s="473"/>
+      <c r="W109" s="471" t="s">
         <v>298</v>
       </c>
-      <c r="U109" s="578"/>
-      <c r="V109" s="579"/>
-      <c r="W109" s="577" t="s">
+      <c r="X109" s="472"/>
+      <c r="Y109" s="473"/>
+      <c r="Z109" s="460" t="s">
         <v>299</v>
       </c>
-      <c r="X109" s="578"/>
-      <c r="Y109" s="579"/>
-      <c r="Z109" s="566" t="s">
+      <c r="AA109" s="461"/>
+      <c r="AB109" s="462"/>
+      <c r="AC109" s="460" t="s">
         <v>300</v>
       </c>
-      <c r="AA109" s="567"/>
-      <c r="AB109" s="568"/>
-      <c r="AC109" s="566" t="s">
+      <c r="AD109" s="461"/>
+      <c r="AE109" s="462"/>
+      <c r="AF109" s="463" t="s">
         <v>301</v>
       </c>
-      <c r="AD109" s="567"/>
-      <c r="AE109" s="568"/>
-      <c r="AF109" s="569" t="s">
+      <c r="AG109" s="464"/>
+      <c r="AH109" s="465"/>
+      <c r="AI109" s="463" t="s">
         <v>302</v>
       </c>
-      <c r="AG109" s="570"/>
-      <c r="AH109" s="571"/>
-      <c r="AI109" s="569" t="s">
-        <v>303</v>
-      </c>
-      <c r="AJ109" s="570"/>
-      <c r="AK109" s="571"/>
+      <c r="AJ109" s="464"/>
+      <c r="AK109" s="465"/>
       <c r="AL109" s="257" t="s">
+        <v>309</v>
+      </c>
+      <c r="AM109" s="258" t="s">
         <v>310</v>
       </c>
-      <c r="AM109" s="258" t="s">
+      <c r="AN109" s="258" t="s">
         <v>311</v>
       </c>
-      <c r="AN109" s="258" t="s">
+      <c r="AO109" s="314" t="s">
+        <v>297</v>
+      </c>
+      <c r="AP109" s="258" t="s">
         <v>312</v>
       </c>
-      <c r="AO109" s="314" t="s">
-        <v>298</v>
-      </c>
-      <c r="AP109" s="258" t="s">
+      <c r="AQ109" s="258" t="s">
         <v>313</v>
       </c>
-      <c r="AQ109" s="258" t="s">
+      <c r="AR109" s="258" t="s">
         <v>314</v>
       </c>
-      <c r="AR109" s="258" t="s">
+      <c r="AS109" s="259" t="s">
         <v>315</v>
       </c>
-      <c r="AS109" s="259" t="s">
+      <c r="AT109" s="427" t="s">
         <v>316</v>
       </c>
-      <c r="AT109" s="427" t="s">
+      <c r="AU109" s="428" t="s">
         <v>317</v>
       </c>
-      <c r="AU109" s="428" t="s">
+      <c r="AV109" s="429" t="s">
         <v>318</v>
       </c>
-      <c r="AV109" s="429" t="s">
+      <c r="AW109" s="427" t="s">
+        <v>301</v>
+      </c>
+      <c r="AX109" s="429" t="s">
         <v>319</v>
       </c>
-      <c r="AW109" s="427" t="s">
-        <v>302</v>
-      </c>
-      <c r="AX109" s="429" t="s">
+      <c r="AY109" s="427" t="s">
         <v>320</v>
       </c>
-      <c r="AY109" s="427" t="s">
+      <c r="AZ109" s="429" t="s">
         <v>321</v>
       </c>
-      <c r="AZ109" s="429" t="s">
+      <c r="BA109" s="431" t="s">
+        <v>376</v>
+      </c>
+      <c r="BB109" s="435" t="s">
+        <v>377</v>
+      </c>
+      <c r="BC109" s="432" t="s">
         <v>322</v>
       </c>
-      <c r="BA109" s="431" t="s">
-        <v>377</v>
-      </c>
-      <c r="BB109" s="435" t="s">
-        <v>378</v>
-      </c>
-      <c r="BC109" s="432" t="s">
+      <c r="BD109" s="430" t="s">
         <v>323</v>
       </c>
-      <c r="BD109" s="430" t="s">
+      <c r="BE109" s="431" t="s">
         <v>324</v>
       </c>
-      <c r="BE109" s="431" t="s">
+      <c r="BF109" s="432" t="s">
         <v>325</v>
       </c>
-      <c r="BF109" s="432" t="s">
+      <c r="BG109" s="290" t="s">
         <v>326</v>
       </c>
-      <c r="BG109" s="290" t="s">
+      <c r="BH109" s="277" t="s">
         <v>327</v>
       </c>
-      <c r="BH109" s="277" t="s">
+      <c r="BI109" s="310" t="s">
         <v>328</v>
-      </c>
-      <c r="BI109" s="310" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="110" spans="2:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="260" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C110" s="304">
         <v>143</v>
@@ -12755,7 +12925,7 @@
     </row>
     <row r="111" spans="2:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B111" s="289" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C111" s="288">
         <v>227</v>
@@ -12990,7 +13160,7 @@
     </row>
     <row r="112" spans="2:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B112" s="291" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C112" s="304">
         <v>302</v>
@@ -13225,7 +13395,7 @@
     </row>
     <row r="113" spans="2:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B113" s="291" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C113" s="304">
         <v>373</v>
@@ -13275,7 +13445,7 @@
         <v>15.952271999999999</v>
       </c>
       <c r="P113" s="287">
-        <f t="shared" si="16"/>
+        <f>C113+2*I113+10</f>
         <v>503</v>
       </c>
       <c r="Q113" s="288">
@@ -13460,7 +13630,7 @@
     </row>
     <row r="114" spans="2:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B114" s="291" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C114" s="304">
         <v>476</v>
@@ -13695,7 +13865,7 @@
     </row>
     <row r="115" spans="2:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B115" s="291" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C115" s="288">
         <v>476</v>
@@ -13930,7 +14100,7 @@
     </row>
     <row r="116" spans="2:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="289" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C116" s="288">
         <v>595</v>
@@ -14165,7 +14335,7 @@
     </row>
     <row r="117" spans="2:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B117" s="289" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C117" s="288">
         <v>595</v>
@@ -14400,7 +14570,7 @@
     </row>
     <row r="118" spans="2:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B118" s="291" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C118" s="304">
         <v>732</v>
@@ -14635,7 +14805,7 @@
     </row>
     <row r="119" spans="2:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B119" s="289" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C119" s="288">
         <v>980</v>
@@ -14870,7 +15040,7 @@
     </row>
     <row r="120" spans="2:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B120" s="289" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C120" s="288">
         <v>980</v>
@@ -15099,7 +15269,7 @@
     </row>
     <row r="121" spans="2:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="289" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C121" s="288">
         <v>1180</v>
@@ -15334,7 +15504,7 @@
     </row>
     <row r="122" spans="2:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B122" s="296" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C122" s="306">
         <v>1180</v>
@@ -15572,13 +15742,13 @@
       <c r="AW128"/>
       <c r="AX128"/>
       <c r="AY128"/>
-      <c r="AZ128" s="565" t="s">
-        <v>336</v>
-      </c>
-      <c r="BA128" s="565"/>
+      <c r="AZ128" s="459" t="s">
+        <v>335</v>
+      </c>
+      <c r="BA128" s="459"/>
       <c r="BB128" s="378"/>
       <c r="BF128" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="129" spans="4:61" x14ac:dyDescent="0.25">
@@ -15587,17 +15757,17 @@
       <c r="AX129" s="258"/>
       <c r="AY129" s="258"/>
       <c r="AZ129" s="258" t="s">
+        <v>352</v>
+      </c>
+      <c r="BA129" s="146" t="s">
         <v>353</v>
-      </c>
-      <c r="BA129" s="146" t="s">
-        <v>354</v>
       </c>
       <c r="BB129" s="146"/>
       <c r="BC129" s="258" t="s">
+        <v>354</v>
+      </c>
+      <c r="BD129" s="367" t="s">
         <v>355</v>
-      </c>
-      <c r="BD129" s="367" t="s">
-        <v>356</v>
       </c>
       <c r="BF129" s="9">
         <v>280</v>
@@ -15606,7 +15776,7 @@
     <row r="130" spans="4:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D130" s="292"/>
       <c r="AW130" s="260" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AX130" s="237"/>
       <c r="AY130" s="237"/>
@@ -15631,7 +15801,7 @@
     <row r="131" spans="4:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D131" s="293"/>
       <c r="AW131" s="142" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AX131" s="49"/>
       <c r="AY131" s="49"/>
@@ -15656,7 +15826,7 @@
     <row r="132" spans="4:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D132" s="292"/>
       <c r="AW132" s="142" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AX132" s="49"/>
       <c r="AY132" s="49"/>
@@ -15681,7 +15851,7 @@
     <row r="133" spans="4:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D133" s="292"/>
       <c r="AW133" s="260" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AX133" s="237"/>
       <c r="AY133" s="237"/>
@@ -15710,7 +15880,7 @@
         <v>0</v>
       </c>
       <c r="AW134" s="264" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AX134" s="265"/>
       <c r="AY134" s="265"/>
@@ -15747,7 +15917,7 @@
     <row r="137" spans="4:61" x14ac:dyDescent="0.25">
       <c r="D137" s="293"/>
       <c r="AY137" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AZ137" s="9">
         <f>AZ131</f>
@@ -15774,7 +15944,7 @@
         <v>1</v>
       </c>
       <c r="AY138" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AZ138" s="9">
         <f>IF($H$99/2&gt;=1.5*$BF$129,(ROUND($H$99/2/$BF$129,0)-1)*2)</f>
@@ -15797,7 +15967,7 @@
     <row r="139" spans="4:61" x14ac:dyDescent="0.25">
       <c r="D139" s="295"/>
       <c r="AY139" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AZ139" s="9">
         <f>IF($H$99/$AO$105&gt;(1.5*$BF$129),(ROUND($H$99/$AO$105/$BF$129,0)-1)*2,0)+IF($H$99/$AO$105*2&gt;$BF$129,(ROUNDDOWN($H$99/$AO$105*2/$BF$129,0)-1)*($AO$105/2-1),0)</f>
@@ -15819,7 +15989,7 @@
     </row>
     <row r="140" spans="4:61" x14ac:dyDescent="0.25">
       <c r="AY140" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AZ140" s="9" t="e">
         <f>IF($H$99/$AO$105&gt;(1.5*$BF$129),ROUNDDOWN($H$99/$AO$105/$BF$129,0),0)+IF(($H$99-$H$99/$AO$105)/(ROUNDDOWN($AO$105/2,0))&gt;1.5*$BF$129,((ROUND($H$99/($AO$105/2)/$BF$129,0))-1)*ROUNDDOWN($AO$105/2,0),0)</f>
@@ -15854,7 +16024,7 @@
     <row r="145" spans="49:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AW145" s="339"/>
       <c r="AX145" s="368" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AY145" s="369"/>
       <c r="BA145"/>
@@ -15862,48 +16032,48 @@
       <c r="BC145"/>
       <c r="BD145"/>
       <c r="BE145" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="BF145"/>
       <c r="BG145"/>
       <c r="BH145" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="BI145"/>
     </row>
     <row r="146" spans="49:61" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="AW146" s="340"/>
       <c r="AX146" s="341" t="s">
+        <v>344</v>
+      </c>
+      <c r="AY146" s="342" t="s">
         <v>345</v>
       </c>
-      <c r="AY146" s="342" t="s">
-        <v>346</v>
-      </c>
       <c r="BA146" s="351" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="BB146" s="433"/>
       <c r="BC146" s="352" t="s">
+        <v>349</v>
+      </c>
+      <c r="BD146" s="352" t="s">
         <v>350</v>
       </c>
-      <c r="BD146" s="352" t="s">
-        <v>351</v>
-      </c>
       <c r="BE146" s="353" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="BF146"/>
       <c r="BG146" s="350" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="BH146" s="350" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="BI146"/>
     </row>
     <row r="147" spans="49:61" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AW147" s="373" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AX147" s="343">
         <f>IFERROR(ROUNDUP(BA147/ROUNDDOWN(1000/BC147,0),0),0)</f>
@@ -15942,7 +16112,7 @@
     </row>
     <row r="148" spans="49:61" ht="30" x14ac:dyDescent="0.25">
       <c r="AW148" s="373" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AX148" s="343">
         <f>AX147+AY147</f>
@@ -15961,7 +16131,7 @@
     </row>
     <row r="149" spans="49:61" ht="60" x14ac:dyDescent="0.25">
       <c r="AW149" s="373" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AX149" s="343">
         <f>IF(BH147&lt;1000,8,0)+IF(AND(BH147&gt;2500,BH147&lt;3000),8,0)+IF(AND(BH147&gt;2000,BH147&lt;2500),4,0)</f>
@@ -15980,7 +16150,7 @@
     </row>
     <row r="150" spans="49:61" ht="30" x14ac:dyDescent="0.25">
       <c r="AW150" s="373" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AX150" s="345">
         <f>IF(BH147&gt;1000,8,0)+IF(AND(BH147&gt;3000,BH147&lt;4000),8,0)</f>
@@ -15999,7 +16169,7 @@
     </row>
     <row r="151" spans="49:61" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AW151" s="374" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AX151" s="346">
         <f>AX147+AY147+AX149</f>
@@ -16018,7 +16188,7 @@
     </row>
     <row r="152" spans="49:61" ht="45" x14ac:dyDescent="0.25">
       <c r="AW152" s="375" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AX152" s="258">
         <f>(IF(B121=D104,BA147,0))</f>
@@ -16040,7 +16210,7 @@
     </row>
     <row r="153" spans="49:61" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AW153" s="376" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AX153" s="265">
         <f>(IF(B122=D104,BA147,0))</f>
@@ -16153,6 +16323,96 @@
     </row>
   </sheetData>
   <mergeCells count="114">
+    <mergeCell ref="C75:G76"/>
+    <mergeCell ref="K75:L76"/>
+    <mergeCell ref="M75:N76"/>
+    <mergeCell ref="O75:P76"/>
+    <mergeCell ref="H75:J76"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="W35:Y35"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K54:L57"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="O27:T27"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="W36:Y36"/>
+    <mergeCell ref="AO38:AO39"/>
+    <mergeCell ref="AP38:AP39"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="W22:Y22"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="W26:Y26"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="W30:Y30"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H8:Q8"/>
+    <mergeCell ref="N2:T2"/>
+    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="N5:T5"/>
+    <mergeCell ref="N6:T6"/>
+    <mergeCell ref="N3:T3"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="AZ128:BA128"/>
     <mergeCell ref="Z109:AB109"/>
@@ -16177,98 +16437,8 @@
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="B42:G42"/>
     <mergeCell ref="B50:C52"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H8:Q8"/>
-    <mergeCell ref="N2:T2"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="N5:T5"/>
-    <mergeCell ref="N6:T6"/>
-    <mergeCell ref="N3:T3"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="O27:T27"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="W36:Y36"/>
-    <mergeCell ref="AO38:AO39"/>
-    <mergeCell ref="AP38:AP39"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="W22:Y22"/>
-    <mergeCell ref="W23:Y23"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="W26:Y26"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="W30:Y30"/>
-    <mergeCell ref="W32:Y32"/>
-    <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="C75:G76"/>
-    <mergeCell ref="K75:L76"/>
-    <mergeCell ref="M75:N76"/>
-    <mergeCell ref="O75:P76"/>
-    <mergeCell ref="H75:J76"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="W35:Y35"/>
-    <mergeCell ref="W31:Y31"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K54:L57"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="B18:G18"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" xWindow="445" yWindow="1004" count="10">
+  <dataValidations xWindow="445" yWindow="1004" count="10">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Размер фланцев" prompt="ЗАПОЛНИ ОБЯЗАТЕЛЬНО!" sqref="D28:D29 J28:J29">
       <formula1>Фланцы</formula1>
     </dataValidation>
@@ -16310,7 +16480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:X38"/>
   <sheetViews>
-    <sheetView topLeftCell="E18" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
@@ -16337,227 +16507,227 @@
     <row r="16" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="5:24" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="5:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="636" t="s">
+      <c r="F18" s="625" t="s">
+        <v>228</v>
+      </c>
+      <c r="G18" s="626"/>
+      <c r="H18" s="626"/>
+      <c r="I18" s="626"/>
+      <c r="J18" s="626"/>
+      <c r="K18" s="626"/>
+      <c r="L18" s="626"/>
+      <c r="M18" s="626"/>
+      <c r="N18" s="626"/>
+      <c r="O18" s="626"/>
+      <c r="P18" s="626"/>
+      <c r="Q18" s="626"/>
+      <c r="R18" s="626"/>
+      <c r="S18" s="626"/>
+      <c r="T18" s="626"/>
+      <c r="U18" s="626"/>
+      <c r="V18" s="626"/>
+      <c r="W18" s="626"/>
+      <c r="X18" s="627"/>
+    </row>
+    <row r="19" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="F19" s="628"/>
+      <c r="G19" s="629"/>
+      <c r="H19" s="629"/>
+      <c r="I19" s="629"/>
+      <c r="J19" s="629"/>
+      <c r="K19" s="629"/>
+      <c r="L19" s="629"/>
+      <c r="M19" s="629"/>
+      <c r="N19" s="629"/>
+      <c r="O19" s="629"/>
+      <c r="P19" s="629"/>
+      <c r="Q19" s="629"/>
+      <c r="R19" s="629"/>
+      <c r="S19" s="629"/>
+      <c r="T19" s="629"/>
+      <c r="U19" s="629"/>
+      <c r="V19" s="629"/>
+      <c r="W19" s="629"/>
+      <c r="X19" s="630"/>
+    </row>
+    <row r="20" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="F20" s="628"/>
+      <c r="G20" s="629"/>
+      <c r="H20" s="629"/>
+      <c r="I20" s="629"/>
+      <c r="J20" s="629"/>
+      <c r="K20" s="629"/>
+      <c r="L20" s="629"/>
+      <c r="M20" s="629"/>
+      <c r="N20" s="629"/>
+      <c r="O20" s="629"/>
+      <c r="P20" s="629"/>
+      <c r="Q20" s="629"/>
+      <c r="R20" s="629"/>
+      <c r="S20" s="629"/>
+      <c r="T20" s="629"/>
+      <c r="U20" s="629"/>
+      <c r="V20" s="629"/>
+      <c r="W20" s="629"/>
+      <c r="X20" s="630"/>
+    </row>
+    <row r="21" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="631"/>
+      <c r="G21" s="632"/>
+      <c r="H21" s="632"/>
+      <c r="I21" s="632"/>
+      <c r="J21" s="632"/>
+      <c r="K21" s="632"/>
+      <c r="L21" s="632"/>
+      <c r="M21" s="632"/>
+      <c r="N21" s="632"/>
+      <c r="O21" s="632"/>
+      <c r="P21" s="632"/>
+      <c r="Q21" s="632"/>
+      <c r="R21" s="632"/>
+      <c r="S21" s="632"/>
+      <c r="T21" s="632"/>
+      <c r="U21" s="632"/>
+      <c r="V21" s="632"/>
+      <c r="W21" s="632"/>
+      <c r="X21" s="633"/>
+    </row>
+    <row r="22" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="634"/>
+      <c r="G22" s="635"/>
+      <c r="H22" s="635"/>
+      <c r="I22" s="635"/>
+      <c r="J22" s="635"/>
+      <c r="K22" s="635"/>
+      <c r="L22" s="635"/>
+      <c r="M22" s="635"/>
+      <c r="N22" s="635"/>
+      <c r="O22" s="635"/>
+      <c r="P22" s="635"/>
+      <c r="Q22" s="635"/>
+      <c r="R22" s="635"/>
+      <c r="S22" s="635"/>
+      <c r="T22" s="635"/>
+      <c r="U22" s="635"/>
+      <c r="V22" s="635"/>
+      <c r="W22" s="635"/>
+      <c r="X22" s="636"/>
+    </row>
+    <row r="23" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="637" t="s">
+        <v>220</v>
+      </c>
+      <c r="G23" s="640" t="s">
+        <v>218</v>
+      </c>
+      <c r="H23" s="641"/>
+      <c r="I23" s="641"/>
+      <c r="J23" s="642"/>
+      <c r="K23" s="643" t="s">
+        <v>219</v>
+      </c>
+      <c r="L23" s="644"/>
+      <c r="M23" s="645"/>
+      <c r="N23" s="646" t="s">
+        <v>41</v>
+      </c>
+      <c r="O23" s="649" t="s">
+        <v>43</v>
+      </c>
+      <c r="P23" s="649" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q23" s="653" t="s">
         <v>229</v>
       </c>
-      <c r="G18" s="637"/>
-      <c r="H18" s="637"/>
-      <c r="I18" s="637"/>
-      <c r="J18" s="637"/>
-      <c r="K18" s="637"/>
-      <c r="L18" s="637"/>
-      <c r="M18" s="637"/>
-      <c r="N18" s="637"/>
-      <c r="O18" s="637"/>
-      <c r="P18" s="637"/>
-      <c r="Q18" s="637"/>
-      <c r="R18" s="637"/>
-      <c r="S18" s="637"/>
-      <c r="T18" s="637"/>
-      <c r="U18" s="637"/>
-      <c r="V18" s="637"/>
-      <c r="W18" s="637"/>
-      <c r="X18" s="638"/>
-    </row>
-    <row r="19" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="F19" s="639"/>
-      <c r="G19" s="640"/>
-      <c r="H19" s="640"/>
-      <c r="I19" s="640"/>
-      <c r="J19" s="640"/>
-      <c r="K19" s="640"/>
-      <c r="L19" s="640"/>
-      <c r="M19" s="640"/>
-      <c r="N19" s="640"/>
-      <c r="O19" s="640"/>
-      <c r="P19" s="640"/>
-      <c r="Q19" s="640"/>
-      <c r="R19" s="640"/>
-      <c r="S19" s="640"/>
-      <c r="T19" s="640"/>
-      <c r="U19" s="640"/>
-      <c r="V19" s="640"/>
-      <c r="W19" s="640"/>
-      <c r="X19" s="641"/>
-    </row>
-    <row r="20" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="F20" s="639"/>
-      <c r="G20" s="640"/>
-      <c r="H20" s="640"/>
-      <c r="I20" s="640"/>
-      <c r="J20" s="640"/>
-      <c r="K20" s="640"/>
-      <c r="L20" s="640"/>
-      <c r="M20" s="640"/>
-      <c r="N20" s="640"/>
-      <c r="O20" s="640"/>
-      <c r="P20" s="640"/>
-      <c r="Q20" s="640"/>
-      <c r="R20" s="640"/>
-      <c r="S20" s="640"/>
-      <c r="T20" s="640"/>
-      <c r="U20" s="640"/>
-      <c r="V20" s="640"/>
-      <c r="W20" s="640"/>
-      <c r="X20" s="641"/>
-    </row>
-    <row r="21" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="642"/>
-      <c r="G21" s="643"/>
-      <c r="H21" s="643"/>
-      <c r="I21" s="643"/>
-      <c r="J21" s="643"/>
-      <c r="K21" s="643"/>
-      <c r="L21" s="643"/>
-      <c r="M21" s="643"/>
-      <c r="N21" s="643"/>
-      <c r="O21" s="643"/>
-      <c r="P21" s="643"/>
-      <c r="Q21" s="643"/>
-      <c r="R21" s="643"/>
-      <c r="S21" s="643"/>
-      <c r="T21" s="643"/>
-      <c r="U21" s="643"/>
-      <c r="V21" s="643"/>
-      <c r="W21" s="643"/>
-      <c r="X21" s="644"/>
-    </row>
-    <row r="22" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="645"/>
-      <c r="G22" s="646"/>
-      <c r="H22" s="646"/>
-      <c r="I22" s="646"/>
-      <c r="J22" s="646"/>
-      <c r="K22" s="646"/>
-      <c r="L22" s="646"/>
-      <c r="M22" s="646"/>
-      <c r="N22" s="646"/>
-      <c r="O22" s="646"/>
-      <c r="P22" s="646"/>
-      <c r="Q22" s="646"/>
-      <c r="R22" s="646"/>
-      <c r="S22" s="646"/>
-      <c r="T22" s="646"/>
-      <c r="U22" s="646"/>
-      <c r="V22" s="646"/>
-      <c r="W22" s="646"/>
-      <c r="X22" s="647"/>
-    </row>
-    <row r="23" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F23" s="648" t="s">
-        <v>221</v>
-      </c>
-      <c r="G23" s="651" t="s">
-        <v>219</v>
-      </c>
-      <c r="H23" s="652"/>
-      <c r="I23" s="652"/>
-      <c r="J23" s="653"/>
-      <c r="K23" s="654" t="s">
-        <v>220</v>
-      </c>
-      <c r="L23" s="655"/>
-      <c r="M23" s="656"/>
-      <c r="N23" s="657" t="s">
-        <v>42</v>
-      </c>
-      <c r="O23" s="660" t="s">
-        <v>44</v>
-      </c>
-      <c r="P23" s="660" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q23" s="664" t="s">
-        <v>230</v>
-      </c>
-      <c r="R23" s="665"/>
-      <c r="S23" s="665"/>
-      <c r="T23" s="665"/>
-      <c r="U23" s="665"/>
-      <c r="V23" s="665"/>
-      <c r="W23" s="666"/>
-      <c r="X23" s="667" t="s">
-        <v>36</v>
+      <c r="R23" s="654"/>
+      <c r="S23" s="654"/>
+      <c r="T23" s="654"/>
+      <c r="U23" s="654"/>
+      <c r="V23" s="654"/>
+      <c r="W23" s="655"/>
+      <c r="X23" s="656" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="5:24" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E24" s="224"/>
-      <c r="F24" s="649"/>
-      <c r="G24" s="610" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" s="614" t="s">
-        <v>40</v>
-      </c>
-      <c r="I24" s="674" t="s">
+      <c r="F24" s="638"/>
+      <c r="G24" s="667" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="670" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="665" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="663" t="s">
         <v>29</v>
       </c>
-      <c r="J24" s="672" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="613" t="s">
-        <v>218</v>
-      </c>
-      <c r="L24" s="615" t="s">
+      <c r="K24" s="661" t="s">
+        <v>217</v>
+      </c>
+      <c r="L24" s="659" t="s">
+        <v>209</v>
+      </c>
+      <c r="M24" s="182" t="s">
         <v>210</v>
       </c>
-      <c r="M24" s="182" t="s">
-        <v>211</v>
-      </c>
-      <c r="N24" s="658"/>
-      <c r="O24" s="661"/>
-      <c r="P24" s="662"/>
-      <c r="Q24" s="612" t="s">
-        <v>115</v>
-      </c>
-      <c r="R24" s="616" t="s">
+      <c r="N24" s="647"/>
+      <c r="O24" s="650"/>
+      <c r="P24" s="651"/>
+      <c r="Q24" s="669" t="s">
+        <v>114</v>
+      </c>
+      <c r="R24" s="671" t="s">
+        <v>222</v>
+      </c>
+      <c r="S24" s="671" t="s">
         <v>223</v>
       </c>
-      <c r="S24" s="616" t="s">
-        <v>224</v>
-      </c>
-      <c r="T24" s="616" t="s">
+      <c r="T24" s="671" t="s">
+        <v>226</v>
+      </c>
+      <c r="U24" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="V24" s="674" t="s">
         <v>227</v>
       </c>
-      <c r="U24" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="V24" s="619" t="s">
-        <v>228</v>
-      </c>
-      <c r="W24" s="617" t="s">
-        <v>174</v>
-      </c>
-      <c r="X24" s="668"/>
+      <c r="W24" s="672" t="s">
+        <v>173</v>
+      </c>
+      <c r="X24" s="657"/>
     </row>
     <row r="25" spans="5:24" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E25" s="225" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="650"/>
-      <c r="G25" s="611"/>
-      <c r="H25" s="615"/>
-      <c r="I25" s="675"/>
-      <c r="J25" s="673"/>
-      <c r="K25" s="671"/>
-      <c r="L25" s="670"/>
+        <v>37</v>
+      </c>
+      <c r="F25" s="639"/>
+      <c r="G25" s="668"/>
+      <c r="H25" s="659"/>
+      <c r="I25" s="666"/>
+      <c r="J25" s="664"/>
+      <c r="K25" s="662"/>
+      <c r="L25" s="660"/>
       <c r="M25" s="209">
         <f>снабжение!F39</f>
         <v>2</v>
       </c>
-      <c r="N25" s="659"/>
-      <c r="O25" s="658"/>
-      <c r="P25" s="663"/>
-      <c r="Q25" s="613"/>
-      <c r="R25" s="615"/>
-      <c r="S25" s="615"/>
-      <c r="T25" s="615"/>
+      <c r="N25" s="648"/>
+      <c r="O25" s="647"/>
+      <c r="P25" s="652"/>
+      <c r="Q25" s="661"/>
+      <c r="R25" s="659"/>
+      <c r="S25" s="659"/>
+      <c r="T25" s="659"/>
       <c r="U25" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="V25" s="620"/>
-      <c r="W25" s="618"/>
-      <c r="X25" s="669"/>
+        <v>224</v>
+      </c>
+      <c r="V25" s="675"/>
+      <c r="W25" s="673"/>
+      <c r="X25" s="658"/>
     </row>
     <row r="26" spans="5:24" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E26" s="226">
@@ -16566,43 +16736,43 @@
       </c>
       <c r="F26" s="227">
         <f>снабжение!K14</f>
-        <v>0</v>
+        <v>1250000</v>
       </c>
       <c r="G26" s="200">
         <f>снабжение!G35+снабжение!M35</f>
-        <v>0</v>
+        <v>16752595.999999998</v>
       </c>
       <c r="H26" s="201">
         <f>снабжение!E8*снабжение!G78*снабжение!D14*снабжение!D14+технолог!V27*снабжение!H78*снабжение!D13</f>
-        <v>0</v>
+        <v>129051.153936</v>
       </c>
       <c r="I26" s="202">
         <f>снабжение!G22*2</f>
-        <v>0</v>
+        <v>3144000</v>
       </c>
       <c r="J26" s="203">
         <f>снабжение!M22*4</f>
-        <v>0</v>
+        <v>44300.660799999991</v>
       </c>
       <c r="K26" s="204">
         <f>снабжение!Q25</f>
-        <v>0</v>
+        <v>26400</v>
       </c>
       <c r="L26" s="205">
         <f>снабжение!F38</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="M26" s="203">
         <f>L26*M25</f>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="N26" s="206">
         <f>снабжение!F78*снабжение!D8+технолог!U27*снабжение!J78*снабжение!D13</f>
-        <v>1274416.6399999999</v>
+        <v>1275581.7899999998</v>
       </c>
       <c r="O26" s="206">
         <f>снабжение!D8*снабжение!E78*снабжение!D14*снабжение!D14+снабжение!D78*снабжение!I78*снабжение!D13</f>
-        <v>0</v>
+        <v>83594.753040000011</v>
       </c>
       <c r="P26" s="221">
         <f>IF(технолог!G27="К4-750",снабжение!Q78,IF(технолог!G27="К4-1200",снабжение!Q78,IF(технолог!G27="К4-1000*500",снабжение!Q78,IF(технолог!G27="К4-1200*600",снабжение!Q78,IF(технолог!G27="К4-1000",снабжение!Q78,снабжение!R78)))))</f>
@@ -16610,7 +16780,7 @@
       </c>
       <c r="Q26" s="204">
         <f>снабжение!T44</f>
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="R26" s="207">
         <f>снабжение!I40</f>
@@ -16622,11 +16792,11 @@
       </c>
       <c r="T26" s="207">
         <f>снабжение!M44+снабжение!M45+снабжение!M46</f>
-        <v>50000</v>
+        <v>52000</v>
       </c>
       <c r="U26" s="202">
         <f>снабжение!M40</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="V26" s="203">
         <f>снабжение!P45</f>
@@ -16634,7 +16804,7 @@
       </c>
       <c r="W26" s="205">
         <f>снабжение!J53+снабжение!J58+снабжение!O53+снабжение!O58</f>
-        <v>58100</v>
+        <v>64100</v>
       </c>
       <c r="X26" s="208">
         <f>снабжение!P13</f>
@@ -16666,120 +16836,128 @@
     <row r="29" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="5:24" x14ac:dyDescent="0.25">
       <c r="I30" s="437" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J30" s="438">
         <f>F26</f>
-        <v>0</v>
+        <v>1250000</v>
       </c>
     </row>
     <row r="31" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I31" s="439" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J31" s="440">
         <f>G26+H26+I26+J26</f>
-        <v>0</v>
+        <v>20069947.814735997</v>
       </c>
     </row>
     <row r="32" spans="5:24" x14ac:dyDescent="0.25">
       <c r="I32" s="439" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J32" s="440">
         <f>N26+O26+P26</f>
-        <v>1356336.64</v>
-      </c>
-      <c r="S32" s="630" t="s">
-        <v>16</v>
-      </c>
-      <c r="T32" s="631"/>
-      <c r="U32" s="621">
+        <v>1441096.5430399999</v>
+      </c>
+      <c r="S32" s="619" t="s">
+        <v>15</v>
+      </c>
+      <c r="T32" s="620"/>
+      <c r="U32" s="610">
         <f>SUM(F26:X26)</f>
-        <v>1609136.64</v>
-      </c>
-      <c r="V32" s="622"/>
-      <c r="W32" s="622"/>
-      <c r="X32" s="623"/>
+        <v>23078244.357775997</v>
+      </c>
+      <c r="V32" s="611"/>
+      <c r="W32" s="611"/>
+      <c r="X32" s="612"/>
     </row>
     <row r="33" spans="9:24" x14ac:dyDescent="0.25">
       <c r="I33" s="439" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J33" s="440">
         <f>K26+L26+M26</f>
-        <v>0</v>
-      </c>
-      <c r="S33" s="632"/>
-      <c r="T33" s="633"/>
-      <c r="U33" s="624"/>
-      <c r="V33" s="625"/>
-      <c r="W33" s="625"/>
-      <c r="X33" s="626"/>
+        <v>38400</v>
+      </c>
+      <c r="S33" s="621"/>
+      <c r="T33" s="622"/>
+      <c r="U33" s="613"/>
+      <c r="V33" s="614"/>
+      <c r="W33" s="614"/>
+      <c r="X33" s="615"/>
     </row>
     <row r="34" spans="9:24" x14ac:dyDescent="0.25">
       <c r="I34" s="439" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J34" s="440">
         <f>R26+S26+T26+U26+V26+X26</f>
-        <v>194700</v>
-      </c>
-      <c r="S34" s="632"/>
-      <c r="T34" s="633"/>
-      <c r="U34" s="624"/>
-      <c r="V34" s="625"/>
-      <c r="W34" s="625"/>
-      <c r="X34" s="626"/>
+        <v>198700</v>
+      </c>
+      <c r="S34" s="621"/>
+      <c r="T34" s="622"/>
+      <c r="U34" s="613"/>
+      <c r="V34" s="614"/>
+      <c r="W34" s="614"/>
+      <c r="X34" s="615"/>
     </row>
     <row r="35" spans="9:24" x14ac:dyDescent="0.25">
       <c r="I35" s="439" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J35" s="440">
         <f>Q26</f>
-        <v>0</v>
-      </c>
-      <c r="S35" s="632"/>
-      <c r="T35" s="633"/>
-      <c r="U35" s="624"/>
-      <c r="V35" s="625"/>
-      <c r="W35" s="625"/>
-      <c r="X35" s="626"/>
+        <v>16000</v>
+      </c>
+      <c r="S35" s="621"/>
+      <c r="T35" s="622"/>
+      <c r="U35" s="613"/>
+      <c r="V35" s="614"/>
+      <c r="W35" s="614"/>
+      <c r="X35" s="615"/>
     </row>
     <row r="36" spans="9:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I36" s="441" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J36" s="442">
         <f>W26</f>
-        <v>58100</v>
-      </c>
-      <c r="S36" s="632"/>
-      <c r="T36" s="633"/>
-      <c r="U36" s="624"/>
-      <c r="V36" s="625"/>
-      <c r="W36" s="625"/>
-      <c r="X36" s="626"/>
+        <v>64100</v>
+      </c>
+      <c r="S36" s="621"/>
+      <c r="T36" s="622"/>
+      <c r="U36" s="613"/>
+      <c r="V36" s="614"/>
+      <c r="W36" s="614"/>
+      <c r="X36" s="615"/>
     </row>
     <row r="37" spans="9:24" x14ac:dyDescent="0.25">
-      <c r="S37" s="632"/>
-      <c r="T37" s="633"/>
-      <c r="U37" s="624"/>
-      <c r="V37" s="625"/>
-      <c r="W37" s="625"/>
-      <c r="X37" s="626"/>
+      <c r="S37" s="621"/>
+      <c r="T37" s="622"/>
+      <c r="U37" s="613"/>
+      <c r="V37" s="614"/>
+      <c r="W37" s="614"/>
+      <c r="X37" s="615"/>
     </row>
     <row r="38" spans="9:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S38" s="634"/>
-      <c r="T38" s="635"/>
-      <c r="U38" s="627"/>
-      <c r="V38" s="628"/>
-      <c r="W38" s="628"/>
-      <c r="X38" s="629"/>
+      <c r="S38" s="623"/>
+      <c r="T38" s="624"/>
+      <c r="U38" s="616"/>
+      <c r="V38" s="617"/>
+      <c r="W38" s="617"/>
+      <c r="X38" s="618"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="V24:V25"/>
     <mergeCell ref="U32:X38"/>
     <mergeCell ref="S32:T38"/>
     <mergeCell ref="F18:X21"/>
@@ -16796,14 +16974,6 @@
     <mergeCell ref="K24:K25"/>
     <mergeCell ref="J24:J25"/>
     <mergeCell ref="I24:I25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="V24:V25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
